--- a/resultaatLocalSolver.xlsx
+++ b/resultaatLocalSolver.xlsx
@@ -4,10 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15740" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25840" windowHeight="17540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="q1=1,q2=1" sheetId="1" r:id="rId1"/>
+    <sheet name="q1=half,q2=half" sheetId="2" r:id="rId2"/>
+    <sheet name="q1=max,q2=half" sheetId="3" r:id="rId3"/>
+    <sheet name="q1=max,q2=max" sheetId="4" r:id="rId4"/>
+    <sheet name="extra's" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="46">
   <si>
     <t>instance</t>
   </si>
@@ -70,13 +74,100 @@
   </si>
   <si>
     <t>1 min</t>
+  </si>
+  <si>
+    <t>5min</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>10min</t>
+  </si>
+  <si>
+    <t>umps8</t>
+  </si>
+  <si>
+    <t>umps8A</t>
+  </si>
+  <si>
+    <t>umps8B</t>
+  </si>
+  <si>
+    <t>umps8C</t>
+  </si>
+  <si>
+    <t>umps10</t>
+  </si>
+  <si>
+    <t>umps10A</t>
+  </si>
+  <si>
+    <t>umps10B</t>
+  </si>
+  <si>
+    <t>umps10C</t>
+  </si>
+  <si>
+    <t>umps12</t>
+  </si>
+  <si>
+    <t>umps14</t>
+  </si>
+  <si>
+    <t>umps14A</t>
+  </si>
+  <si>
+    <t>umps14B</t>
+  </si>
+  <si>
+    <t>umps14C</t>
+  </si>
+  <si>
+    <t>umps16</t>
+  </si>
+  <si>
+    <t>umps16A</t>
+  </si>
+  <si>
+    <t>umps16B</t>
+  </si>
+  <si>
+    <t>umps16C</t>
+  </si>
+  <si>
+    <t>umps18</t>
+  </si>
+  <si>
+    <t>umps20</t>
+  </si>
+  <si>
+    <t>umps22</t>
+  </si>
+  <si>
+    <t>umps24</t>
+  </si>
+  <si>
+    <t>umps26</t>
+  </si>
+  <si>
+    <t>umps30</t>
+  </si>
+  <si>
+    <t>umps28</t>
+  </si>
+  <si>
+    <t>umps32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,6 +190,28 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -120,8 +233,41 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -130,9 +276,256 @@
     <border>
       <left/>
       <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -151,16 +544,7 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -169,12 +553,23 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -182,11 +577,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -195,43 +592,211 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="21">
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -561,390 +1126,2291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="4" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="18">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="10" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:6" ht="19" thickBot="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3">
+      <c r="E2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>14832</v>
+      </c>
+      <c r="E3" s="2">
+        <v>14832</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>15622</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15605</v>
+      </c>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>15093</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15037</v>
+      </c>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>14053</v>
+      </c>
+      <c r="E6" s="2">
+        <v>13891</v>
+      </c>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>22427</v>
+      </c>
+      <c r="E7" s="2">
+        <v>21767</v>
+      </c>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>21816</v>
+      </c>
+      <c r="E8" s="2">
+        <v>21487</v>
+      </c>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>21834</v>
+      </c>
+      <c r="E9" s="2">
+        <v>21141</v>
+      </c>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>23853</v>
+      </c>
+      <c r="E10" s="2">
+        <v>23218</v>
+      </c>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45912</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45912</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>75104</v>
+      </c>
+      <c r="E12" s="2">
+        <v>74562</v>
+      </c>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>79063</v>
+      </c>
+      <c r="E13" s="2">
+        <v>78588</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>79854</v>
+      </c>
+      <c r="E14" s="2">
+        <v>76813</v>
+      </c>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>82550</v>
+      </c>
+      <c r="E15" s="2">
+        <v>81611</v>
+      </c>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>82324</v>
+      </c>
+      <c r="E16" s="2">
+        <v>82324</v>
+      </c>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>93725</v>
+      </c>
+      <c r="E17" s="2">
+        <v>91229</v>
+      </c>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="12">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>97815</v>
+      </c>
+      <c r="E18" s="2">
+        <v>97366</v>
+      </c>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>100089</v>
+      </c>
+      <c r="E19" s="2">
+        <v>98829</v>
+      </c>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>110649</v>
+      </c>
+      <c r="E20" s="2">
+        <v>110649</v>
+      </c>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="12">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>132923</v>
+      </c>
+      <c r="E21" s="2">
+        <v>132923</v>
+      </c>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="12">
+        <v>1</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>158495</v>
+      </c>
+      <c r="E22" s="2">
+        <v>155569</v>
+      </c>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="12">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>178592</v>
+      </c>
+      <c r="E23" s="2">
+        <v>178592</v>
+      </c>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="12">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>213173</v>
+      </c>
+      <c r="E24" s="2">
+        <v>209854</v>
+      </c>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="12">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>261868</v>
+      </c>
+      <c r="E25" s="2">
+        <v>242089</v>
+      </c>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="12">
+        <v>1</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>307632</v>
+      </c>
+      <c r="E26" s="2">
+        <v>287354</v>
+      </c>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" ht="16" thickBot="1">
+      <c r="A27" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+      <c r="C27" s="13">
+        <v>1</v>
+      </c>
+      <c r="D27" s="15">
+        <v>358830</v>
+      </c>
+      <c r="E27" s="6">
+        <v>348564</v>
+      </c>
+      <c r="F27" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:6" ht="19" thickBot="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
-        <v>15292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="12">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11">
-        <v>15531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="C3" s="3">
+        <f>B3/4</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="27">
+        <v>21691</v>
+      </c>
+      <c r="E3" s="28">
+        <v>21691</v>
+      </c>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C6" si="0">B4/4</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="30">
+        <v>25322</v>
+      </c>
+      <c r="E4" s="3">
+        <v>25003</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11">
-        <v>15406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="30">
+        <v>24069</v>
+      </c>
+      <c r="E5" s="3">
+        <v>23651</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11">
-        <v>14615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3">
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="30">
+        <v>24707</v>
+      </c>
+      <c r="E6" s="3">
+        <v>24504</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11">
-        <v>22785</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="30">
+        <v>33426</v>
+      </c>
+      <c r="E7" s="3">
+        <v>33019</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11">
-        <v>21076</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="12">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="30">
+        <v>37915</v>
+      </c>
+      <c r="E8" s="3">
+        <v>37915</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11">
-        <v>21683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="12">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30">
+        <v>35937</v>
+      </c>
+      <c r="E9" s="3">
+        <v>35937</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
-        <v>23853</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3">
+      <c r="B10" s="12">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="30">
+        <v>38047</v>
+      </c>
+      <c r="E10" s="3">
+        <v>37193</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12">
         <v>12</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11">
-        <v>45689</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3">
+      <c r="B11" s="12">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="30">
+        <v>68413</v>
+      </c>
+      <c r="E11" s="3">
+        <v>68116</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12">
         <v>14</v>
       </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
-        <v>77649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="12">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="30">
+        <v>108416</v>
+      </c>
+      <c r="E12" s="3">
+        <v>108416</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11">
-        <v>80247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="12">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="30">
+        <v>115596</v>
+      </c>
+      <c r="E13" s="3">
+        <v>115192</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11">
-        <v>77070</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="12">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="30">
+        <v>118734</v>
+      </c>
+      <c r="E14" s="3">
+        <v>118734</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11">
-        <v>81849</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3">
+      <c r="B15" s="12">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="30">
+        <v>118994</v>
+      </c>
+      <c r="E15" s="3">
+        <v>118994</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="11">
-        <v>83853</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="12">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" ref="C16:C27" si="1">B16/4</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="30">
+        <v>162821</v>
+      </c>
+      <c r="E16" s="3">
+        <v>156790</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11">
-        <v>94996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="12">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D17" s="30">
+        <v>175180</v>
+      </c>
+      <c r="E17" s="3">
+        <v>171422</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="11">
-        <v>97599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
+      <c r="B18" s="12">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D18" s="30">
+        <v>180560</v>
+      </c>
+      <c r="E18" s="3">
+        <v>176157</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11">
-        <v>100072</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3">
+      <c r="B19" s="12">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="30">
+        <v>176245</v>
+      </c>
+      <c r="E19" s="3">
+        <v>174698</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="11">
-        <v>115726</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
+      <c r="B20" s="12">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="30">
+        <v>197982</v>
+      </c>
+      <c r="E20" s="3">
+        <v>196483</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11">
-        <v>135343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3">
+      <c r="B21" s="12">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="30">
+        <v>245865</v>
+      </c>
+      <c r="E21" s="3">
+        <v>242627</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="12">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="11">
-        <v>160344</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3">
+      <c r="B22" s="12">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="30">
+        <v>281966</v>
+      </c>
+      <c r="E22" s="3">
+        <v>273894</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="12">
         <v>24</v>
       </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="11">
-        <v>184011</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3">
+      <c r="B23" s="12">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D23" s="30">
+        <v>343324</v>
+      </c>
+      <c r="E23" s="3">
+        <v>341210</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="12">
         <v>26</v>
       </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="11">
-        <v>219272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
+      <c r="B24" s="12">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
+      <c r="D24" s="30">
+        <v>403821</v>
+      </c>
+      <c r="E24" s="3">
+        <v>391721</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="12">
         <v>28</v>
       </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="11">
-        <v>258533</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3">
+      <c r="B25" s="12">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="30">
+        <v>462147</v>
+      </c>
+      <c r="E25" s="3">
+        <v>446488</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="12">
         <v>30</v>
       </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="11">
-        <v>310076</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4">
+      <c r="B26" s="12">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="30">
+        <v>535693</v>
+      </c>
+      <c r="E26" s="3">
+        <v>518212</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="16" thickBot="1">
+      <c r="A27" s="13">
         <v>32</v>
       </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="12">
-        <v>366922</v>
-      </c>
+      <c r="B27" s="13">
+        <v>16</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D27" s="31">
+        <v>681409</v>
+      </c>
+      <c r="E27" s="5">
+        <v>649277</v>
+      </c>
+      <c r="F27" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:6" ht="19" thickBot="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12">
+        <v>8</v>
+      </c>
+      <c r="C3" s="12">
+        <f>B3/4</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="32">
+        <v>25053</v>
+      </c>
+      <c r="E3" s="33">
+        <v>24438</v>
+      </c>
+      <c r="F3" s="46">
+        <v>24438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12">
+        <f t="shared" ref="C4:C27" si="0">B4/4</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="35">
+        <v>27581</v>
+      </c>
+      <c r="E4" s="2">
+        <v>26901</v>
+      </c>
+      <c r="F4" s="44">
+        <v>26871</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="35">
+        <v>25318</v>
+      </c>
+      <c r="E5" s="2">
+        <v>25318</v>
+      </c>
+      <c r="F5" s="44"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="35">
+        <v>26066</v>
+      </c>
+      <c r="E6" s="2">
+        <v>25827</v>
+      </c>
+      <c r="F6" s="44"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="35">
+        <v>39738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>37934</v>
+      </c>
+      <c r="F7" s="44">
+        <v>37934</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+      <c r="D8" s="35">
+        <v>42749</v>
+      </c>
+      <c r="E8" s="2">
+        <v>41969</v>
+      </c>
+      <c r="F8" s="44">
+        <v>41206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2</v>
+      </c>
+      <c r="D9" s="35">
+        <v>41007</v>
+      </c>
+      <c r="E9" s="2">
+        <v>40474</v>
+      </c>
+      <c r="F9" s="44">
+        <v>40474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2</v>
+      </c>
+      <c r="D10" s="35">
+        <v>41017</v>
+      </c>
+      <c r="E10" s="2">
+        <v>41017</v>
+      </c>
+      <c r="F10" s="44">
+        <v>41017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12">
+        <v>12</v>
+      </c>
+      <c r="B11" s="12">
+        <v>12</v>
+      </c>
+      <c r="C11" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D11" s="35">
+        <v>76155</v>
+      </c>
+      <c r="E11" s="2">
+        <v>73885</v>
+      </c>
+      <c r="F11" s="44">
+        <v>71843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12">
+        <v>14</v>
+      </c>
+      <c r="B12" s="12">
+        <v>14</v>
+      </c>
+      <c r="C12" s="12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="35">
+        <v>126979</v>
+      </c>
+      <c r="E12" s="2">
+        <v>120353</v>
+      </c>
+      <c r="F12" s="44">
+        <v>120353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12">
+        <v>14</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3</v>
+      </c>
+      <c r="D13" s="35">
+        <v>127661</v>
+      </c>
+      <c r="E13" s="2">
+        <v>127661</v>
+      </c>
+      <c r="F13" s="44">
+        <v>127661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12">
+        <v>14</v>
+      </c>
+      <c r="C14" s="12">
+        <v>3</v>
+      </c>
+      <c r="D14" s="35">
+        <v>135994</v>
+      </c>
+      <c r="E14" s="2">
+        <v>133562</v>
+      </c>
+      <c r="F14" s="44">
+        <v>131226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12">
+        <v>14</v>
+      </c>
+      <c r="C15" s="12">
+        <v>3</v>
+      </c>
+      <c r="D15" s="35">
+        <v>136829</v>
+      </c>
+      <c r="E15" s="2">
+        <v>130465</v>
+      </c>
+      <c r="F15" s="44">
+        <v>130465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12">
+        <v>16</v>
+      </c>
+      <c r="B16" s="12">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12">
+        <v>16</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12">
+        <v>16</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="12">
+        <v>16</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="12">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12">
+        <v>18</v>
+      </c>
+      <c r="C20" s="12">
+        <v>4</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12">
+        <v>20</v>
+      </c>
+      <c r="C21" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="12">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12">
+        <v>22</v>
+      </c>
+      <c r="C22" s="12">
+        <v>5</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="12">
+        <v>24</v>
+      </c>
+      <c r="B23" s="12">
+        <v>24</v>
+      </c>
+      <c r="C23" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="12">
+        <v>26</v>
+      </c>
+      <c r="B24" s="12">
+        <v>26</v>
+      </c>
+      <c r="C24" s="12">
+        <v>6</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="12">
+        <v>28</v>
+      </c>
+      <c r="B25" s="12">
+        <v>28</v>
+      </c>
+      <c r="C25" s="12">
+        <v>7</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="12">
+        <v>30</v>
+      </c>
+      <c r="B26" s="12">
+        <v>30</v>
+      </c>
+      <c r="C26" s="12">
+        <v>7</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" thickBot="1">
+      <c r="A27" s="13">
+        <v>32</v>
+      </c>
+      <c r="B27" s="13">
+        <v>32</v>
+      </c>
+      <c r="C27" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:6" ht="19" thickBot="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12">
+        <v>8</v>
+      </c>
+      <c r="C3" s="12">
+        <f>B3/2</f>
+        <v>4</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="33">
+        <v>34311</v>
+      </c>
+      <c r="F3" s="34">
+        <v>34311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12">
+        <f t="shared" ref="C4:C27" si="0">B4/2</f>
+        <v>4</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2">
+        <v>31581</v>
+      </c>
+      <c r="F4" s="18">
+        <v>31490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="35">
+        <v>32827</v>
+      </c>
+      <c r="E5" s="2">
+        <v>32827</v>
+      </c>
+      <c r="F5" s="18">
+        <v>32827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
+        <v>30274</v>
+      </c>
+      <c r="F6" s="18">
+        <v>30274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="35">
+        <v>53910</v>
+      </c>
+      <c r="E7" s="2">
+        <v>53910</v>
+      </c>
+      <c r="F7" s="18">
+        <v>53910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="35">
+        <v>51557</v>
+      </c>
+      <c r="E8" s="2">
+        <v>51557</v>
+      </c>
+      <c r="F8" s="18">
+        <v>51505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="35">
+        <v>57129</v>
+      </c>
+      <c r="E9" s="2">
+        <v>57129</v>
+      </c>
+      <c r="F9" s="18">
+        <v>57129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="35">
+        <v>48387</v>
+      </c>
+      <c r="E10" s="2">
+        <v>47694</v>
+      </c>
+      <c r="F10" s="18">
+        <v>47694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12">
+        <v>12</v>
+      </c>
+      <c r="B11" s="12">
+        <v>12</v>
+      </c>
+      <c r="C11" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12">
+        <v>14</v>
+      </c>
+      <c r="B12" s="12">
+        <v>14</v>
+      </c>
+      <c r="C12" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12">
+        <v>14</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12">
+        <v>14</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12">
+        <v>14</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12">
+        <v>16</v>
+      </c>
+      <c r="B16" s="12">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12">
+        <v>16</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12">
+        <v>16</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="12">
+        <v>16</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="12">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12">
+        <v>18</v>
+      </c>
+      <c r="C20" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12">
+        <v>20</v>
+      </c>
+      <c r="C21" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="12">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12">
+        <v>22</v>
+      </c>
+      <c r="C22" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="12">
+        <v>24</v>
+      </c>
+      <c r="B23" s="12">
+        <v>24</v>
+      </c>
+      <c r="C23" s="12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="12">
+        <v>26</v>
+      </c>
+      <c r="B24" s="12">
+        <v>26</v>
+      </c>
+      <c r="C24" s="12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="12">
+        <v>28</v>
+      </c>
+      <c r="B25" s="12">
+        <v>28</v>
+      </c>
+      <c r="C25" s="12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="12">
+        <v>30</v>
+      </c>
+      <c r="B26" s="12">
+        <v>30</v>
+      </c>
+      <c r="C26" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" thickBot="1">
+      <c r="A27" s="13">
+        <v>32</v>
+      </c>
+      <c r="B27" s="13">
+        <v>32</v>
+      </c>
+      <c r="C27" s="13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F12:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:6" ht="19" thickBot="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18">
+      <c r="A3" s="37">
+        <v>12</v>
+      </c>
+      <c r="B3" s="37">
+        <v>11</v>
+      </c>
+      <c r="C3" s="37">
+        <v>6</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="12">
+        <v>12</v>
+      </c>
+      <c r="B4" s="12">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12">
+        <v>5</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12">
+        <v>12</v>
+      </c>
+      <c r="B5" s="12">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12">
+        <v>6</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" ht="16" thickBot="1">
+      <c r="A6" s="13">
+        <v>12</v>
+      </c>
+      <c r="B6" s="13">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13">
+        <v>5</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/resultaatLocalSolver.xlsx
+++ b/resultaatLocalSolver.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="30">
   <si>
     <t>instance</t>
   </si>
@@ -188,7 +188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +546,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -602,8 +602,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -648,9 +678,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -659,21 +686,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -724,9 +736,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -734,9 +743,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -757,44 +763,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -823,11 +799,62 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="85">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -855,6 +882,21 @@
     <cellStyle name="Gevolgde hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -882,11 +924,3312 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Annealing lvl = 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 min</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'annealingLVL=1'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'annealingLVL=1'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51557.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48387.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5 min</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'annealingLVL=1'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'annealingLVL=1'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31581.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51505.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47694.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>15 min</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'annealingLVL=1'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'annealingLVL=1'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31581.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51505.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47694.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Optimal</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'annealingLVL=1'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'annealingLVL=1'!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31490.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32731.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29879.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48942.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46551.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45609.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43149.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2120941224"/>
+        <c:axId val="-2112762376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2120941224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2112762376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2112762376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2120941224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Annealing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> level = 4</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 min</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'annealingLVL=4'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'annealingLVL=4'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51557.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48587.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5 min</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'annealingLVL=4'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'annealingLVL=4'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31581.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51557.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46794.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>15 min</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'annealingLVL=4'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'annealingLVL=4'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31581.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51505.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46794.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Optimal</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'annealingLVL=4'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'annealingLVL=4'!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31490.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32731.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29879.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48942.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46551.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45609.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43149.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2119161224"/>
+        <c:axId val="-2111402792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2119161224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2111402792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2111402792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2119161224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Annealing level = 7</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 min</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'annealingLVL=7'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'annealingLVL=7'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51693.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48387.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5 min</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'annealingLVL=7'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'annealingLVL=7'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31581.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51693.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48387.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>15 min</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'annealingLVL=7'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'annealingLVL=7'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31581.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51505.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56059.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48387.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Optimal</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'annealingLVL=7'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'annealingLVL=7'!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31490.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32731.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29879.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48942.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46551.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45609.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43149.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2112044600"/>
+        <c:axId val="-2120994392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2112044600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2120994392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2120994392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2112044600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Annealing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> level = 9</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 min</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'annealingLVL=9'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'annealingLVL=9'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51490.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48587.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5 min</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'annealingLVL=9'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'annealingLVL=9'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31581.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51490.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48540.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>15 min</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'annealingLVL=9'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'annealingLVL=9'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31581.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51490.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47775.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Optimal</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'annealingLVL=9'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'annealingLVL=9'!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31490.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32731.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29879.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48942.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46551.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45609.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43149.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2133264744"/>
+        <c:axId val="-2121056824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2133264744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2121056824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2121056824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2133264744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Runtime  = 1 min</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Annealing lvl 1</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comp1min!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comp1min!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51557.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48387.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Annealing lvl 4</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comp1min!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comp1min!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51557.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48587.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Annealing lvl 7</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comp1min!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comp1min!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51693.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48387.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Annealing lvl 9</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comp1min!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comp1min!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51490.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48587.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Optimal</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comp1min!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comp1min!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31490.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32731.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29879.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48942.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46551.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45609.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43149.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2119372920"/>
+        <c:axId val="-2120051320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2119372920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2120051320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2120051320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2119372920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Runtime = 5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> min</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Annealing lvl 1</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comp5min!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comp5min!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31581.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51505.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47694.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Annealing lvl 4</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comp5min!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comp5min!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31581.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51557.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46794.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Annealing lvl 7</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comp5min!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comp5min!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31581.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51693.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48387.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Annealing lvl 9</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comp5min!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comp5min!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31581.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51490.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48540.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Optimal</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comp5min!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comp5min!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31490.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32731.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29879.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48942.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46551.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45609.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43149.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2115941208"/>
+        <c:axId val="2138701832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2115941208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2138701832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2138701832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2115941208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Runtime = 15 min</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Annealing lvl 1</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comp15min!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comp15min!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31581.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51505.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47694.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Annealing lvl  4</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comp15min!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comp15min!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31581.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51505.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46794.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Annealing lvl 7</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comp15min!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comp15min!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31581.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51505.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56059.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48387.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Annealing lvl 9</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comp15min!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comp15min!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31581.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30274.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53910.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51490.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47775.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Optimal</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comp15min!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comp15min!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34311.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31490.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32731.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29879.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48942.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46551.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45609.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43149.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2129673912"/>
+        <c:axId val="2130505672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2129673912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2130505672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2130505672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2129673912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafiek 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1214,7 +4557,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1223,53 +4566,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19" thickBot="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="23" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="21"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" ht="19" thickBot="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="21" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="15"/>
@@ -1285,22 +4628,28 @@
         <f>B3/2</f>
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="19">
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
         <v>34311</v>
       </c>
+      <c r="F3" s="1">
+        <v>34311</v>
+      </c>
+      <c r="G3" s="16">
+        <v>34311</v>
+      </c>
       <c r="H3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="46">
         <f>E3-G3</f>
-        <v>-34311</v>
+        <v>0</v>
       </c>
       <c r="J3" s="10">
         <f>F3-G3</f>
-        <v>-34311</v>
+        <v>0</v>
       </c>
       <c r="K3" s="15"/>
     </row>
@@ -1312,25 +4661,31 @@
         <v>4</v>
       </c>
       <c r="C4" s="8">
-        <f t="shared" ref="C4:C27" si="0">B4/2</f>
+        <f t="shared" ref="C4:C19" si="0">B4/2</f>
         <v>2</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="19">
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>31581</v>
+      </c>
+      <c r="F4" s="1">
+        <v>31581</v>
+      </c>
+      <c r="G4" s="16">
         <v>31490</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I19" si="1">E4-G4</f>
-        <v>-31490</v>
+        <f t="shared" ref="I4:I10" si="1">E4-G4</f>
+        <v>91</v>
       </c>
       <c r="J4" s="10">
         <f t="shared" ref="J4:J19" si="2">F4-G4</f>
-        <v>-31490</v>
+        <v>91</v>
       </c>
       <c r="K4" s="15"/>
     </row>
@@ -1345,23 +4700,29 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="19">
+      <c r="D5" s="6">
+        <v>32827</v>
+      </c>
+      <c r="E5" s="1">
+        <v>32827</v>
+      </c>
+      <c r="F5" s="1">
+        <v>32827</v>
+      </c>
+      <c r="G5" s="16">
         <v>32731</v>
       </c>
       <c r="H5" s="12">
         <f>D5-G5</f>
-        <v>-32731</v>
+        <v>96</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>-32731</v>
+        <v>96</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" si="2"/>
-        <v>-32731</v>
+        <v>96</v>
       </c>
       <c r="K5" s="15"/>
     </row>
@@ -1376,23 +4737,29 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="19">
+      <c r="D6" s="6">
+        <v>30274</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30274</v>
+      </c>
+      <c r="F6" s="1">
+        <v>30274</v>
+      </c>
+      <c r="G6" s="16">
         <v>29879</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" ref="H6:H19" si="3">D6-G6</f>
-        <v>-29879</v>
+        <f t="shared" ref="H6:H10" si="3">D6-G6</f>
+        <v>395</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>-29879</v>
+        <v>395</v>
       </c>
       <c r="J6" s="10">
         <f t="shared" si="2"/>
-        <v>-29879</v>
+        <v>395</v>
       </c>
       <c r="K6" s="15"/>
     </row>
@@ -1403,26 +4770,32 @@
       <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="23">
         <v>2</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="19">
+      <c r="D7" s="45">
+        <v>53910</v>
+      </c>
+      <c r="E7" s="46">
+        <v>53910</v>
+      </c>
+      <c r="F7" s="46">
+        <v>53910</v>
+      </c>
+      <c r="G7" s="16">
         <v>48942</v>
       </c>
       <c r="H7" s="12">
         <f t="shared" si="3"/>
-        <v>-48942</v>
+        <v>4968</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>-48942</v>
+        <v>4968</v>
       </c>
       <c r="J7" s="10">
         <f t="shared" si="2"/>
-        <v>-48942</v>
+        <v>4968</v>
       </c>
       <c r="K7" s="15"/>
     </row>
@@ -1433,26 +4806,32 @@
       <c r="B8" s="12">
         <v>5</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="23">
         <v>2</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="19">
+      <c r="D8" s="6">
+        <v>51557</v>
+      </c>
+      <c r="E8" s="1">
+        <v>51505</v>
+      </c>
+      <c r="F8" s="46">
+        <v>51505</v>
+      </c>
+      <c r="G8" s="16">
         <v>46551</v>
       </c>
       <c r="H8" s="12">
         <f t="shared" si="3"/>
-        <v>-46551</v>
+        <v>5006</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>-46551</v>
+        <v>4954</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="2"/>
-        <v>-46551</v>
+        <v>4954</v>
       </c>
       <c r="K8" s="15"/>
     </row>
@@ -1463,26 +4842,32 @@
       <c r="B9" s="12">
         <v>5</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="23">
         <v>2</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="19">
+      <c r="D9" s="45">
+        <v>57129</v>
+      </c>
+      <c r="E9" s="46">
+        <v>57129</v>
+      </c>
+      <c r="F9" s="46">
+        <v>57129</v>
+      </c>
+      <c r="G9" s="16">
         <v>45609</v>
       </c>
       <c r="H9" s="12">
         <f t="shared" si="3"/>
-        <v>-45609</v>
+        <v>11520</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>-45609</v>
+        <v>11520</v>
       </c>
       <c r="J9" s="10">
         <f t="shared" si="2"/>
-        <v>-45609</v>
+        <v>11520</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1493,26 +4878,32 @@
       <c r="B10" s="12">
         <v>5</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="23">
         <v>2</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="19">
+      <c r="D10" s="6">
+        <v>48387</v>
+      </c>
+      <c r="E10" s="1">
+        <v>47694</v>
+      </c>
+      <c r="F10" s="1">
+        <v>47694</v>
+      </c>
+      <c r="G10" s="16">
         <v>43149</v>
       </c>
       <c r="H10" s="12">
         <f t="shared" si="3"/>
-        <v>-43149</v>
+        <v>5238</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>-43149</v>
+        <v>4545</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="2"/>
-        <v>-43149</v>
+        <v>4545</v>
       </c>
       <c r="K10" s="15"/>
     </row>
@@ -1527,10 +4918,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="19" t="s">
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="12" t="s">
@@ -1554,10 +4951,16 @@
       <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="19">
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="16">
         <v>164440</v>
       </c>
       <c r="H12" s="12" t="s">
@@ -1566,9 +4969,8 @@
       <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="10">
-        <f t="shared" si="2"/>
-        <v>-164440</v>
+      <c r="J12" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K12" s="15"/>
     </row>
@@ -1582,10 +4984,16 @@
       <c r="C13" s="8">
         <v>3</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="19">
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="16">
         <v>158760</v>
       </c>
       <c r="H13" s="12" t="s">
@@ -1594,9 +5002,8 @@
       <c r="I13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="10">
-        <f t="shared" si="2"/>
-        <v>-158760</v>
+      <c r="J13" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K13" s="15"/>
     </row>
@@ -1610,10 +5017,16 @@
       <c r="C14" s="8">
         <v>3</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="19">
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="16">
         <v>157884</v>
       </c>
       <c r="H14" s="12" t="s">
@@ -1622,9 +5035,8 @@
       <c r="I14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="10">
-        <f t="shared" si="2"/>
-        <v>-157884</v>
+      <c r="J14" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1638,10 +5050,16 @@
       <c r="C15" s="8">
         <v>3</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="19">
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="16">
         <v>154913</v>
       </c>
       <c r="H15" s="12" t="s">
@@ -1650,9 +5068,8 @@
       <c r="I15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="10">
-        <f t="shared" si="2"/>
-        <v>-154913</v>
+      <c r="J15" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K15" s="15"/>
     </row>
@@ -1667,10 +5084,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="19">
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="16">
         <v>165765</v>
       </c>
       <c r="H16" s="12" t="s">
@@ -1679,9 +5102,8 @@
       <c r="I16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="10">
-        <f t="shared" si="2"/>
-        <v>-165765</v>
+      <c r="J16" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K16" s="15"/>
     </row>
@@ -1696,10 +5118,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="19">
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="16">
         <v>178511</v>
       </c>
       <c r="H17" s="12" t="s">
@@ -1708,9 +5136,8 @@
       <c r="I17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="10">
-        <f t="shared" si="2"/>
-        <v>-178511</v>
+      <c r="J17" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K17" s="15"/>
     </row>
@@ -1725,10 +5152,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="19">
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="16">
         <v>180204</v>
       </c>
       <c r="H18" s="12" t="s">
@@ -1737,9 +5170,8 @@
       <c r="I18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="10">
-        <f t="shared" si="2"/>
-        <v>-180204</v>
+      <c r="J18" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K18" s="15"/>
     </row>
@@ -1754,10 +5186,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="20">
+      <c r="D19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="17">
         <v>180483</v>
       </c>
       <c r="H19" s="13" t="s">
@@ -1766,9 +5204,8 @@
       <c r="I19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="11">
-        <f t="shared" si="2"/>
-        <v>-180483</v>
+      <c r="J19" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K19" s="15"/>
     </row>
@@ -1776,10 +5213,10 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2"/>
@@ -1853,6 +5290,7 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1865,8 +5303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" activeCellId="1" sqref="A3:A10 D3:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1875,52 +5313,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19" thickBot="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="23" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="19" thickBot="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="21" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1935,22 +5373,28 @@
         <f>B3/2</f>
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="19">
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
         <v>34311</v>
       </c>
+      <c r="F3" s="1">
+        <v>34311</v>
+      </c>
+      <c r="G3" s="16">
+        <v>34311</v>
+      </c>
       <c r="H3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="46">
         <f>E3-G3</f>
-        <v>-34311</v>
+        <v>0</v>
       </c>
       <c r="J3" s="10">
         <f>F3-G3</f>
-        <v>-34311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1964,22 +5408,28 @@
         <f t="shared" ref="C4:C19" si="0">B4/2</f>
         <v>2</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="19">
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>31581</v>
+      </c>
+      <c r="F4" s="1">
+        <v>31581</v>
+      </c>
+      <c r="G4" s="16">
         <v>31490</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I19" si="1">E4-G4</f>
-        <v>-31490</v>
+        <f t="shared" ref="I4:I10" si="1">E4-G4</f>
+        <v>91</v>
       </c>
       <c r="J4" s="10">
         <f t="shared" ref="J4:J19" si="2">F4-G4</f>
-        <v>-31490</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1993,23 +5443,29 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="19">
+      <c r="D5" s="6">
+        <v>32827</v>
+      </c>
+      <c r="E5" s="1">
+        <v>32827</v>
+      </c>
+      <c r="F5" s="1">
+        <v>32827</v>
+      </c>
+      <c r="G5" s="16">
         <v>32731</v>
       </c>
       <c r="H5" s="12">
         <f>D5-G5</f>
-        <v>-32731</v>
+        <v>96</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>-32731</v>
+        <v>96</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" si="2"/>
-        <v>-32731</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2023,23 +5479,29 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="19">
+      <c r="D6" s="6">
+        <v>30274</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30274</v>
+      </c>
+      <c r="F6" s="1">
+        <v>30274</v>
+      </c>
+      <c r="G6" s="16">
         <v>29879</v>
       </c>
       <c r="H6" s="12">
         <f t="shared" ref="H6:H10" si="3">D6-G6</f>
-        <v>-29879</v>
+        <v>395</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>-29879</v>
+        <v>395</v>
       </c>
       <c r="J6" s="10">
         <f t="shared" si="2"/>
-        <v>-29879</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2049,26 +5511,32 @@
       <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="23">
         <v>2</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="19">
+      <c r="D7" s="6">
+        <v>53910</v>
+      </c>
+      <c r="E7" s="1">
+        <v>53910</v>
+      </c>
+      <c r="F7" s="1">
+        <v>53910</v>
+      </c>
+      <c r="G7" s="16">
         <v>48942</v>
       </c>
       <c r="H7" s="12">
         <f t="shared" si="3"/>
-        <v>-48942</v>
+        <v>4968</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>-48942</v>
+        <v>4968</v>
       </c>
       <c r="J7" s="10">
         <f t="shared" si="2"/>
-        <v>-48942</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2078,26 +5546,32 @@
       <c r="B8" s="12">
         <v>5</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="23">
         <v>2</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="19">
+      <c r="D8" s="6">
+        <v>51557</v>
+      </c>
+      <c r="E8" s="1">
+        <v>51557</v>
+      </c>
+      <c r="F8" s="1">
+        <v>51505</v>
+      </c>
+      <c r="G8" s="16">
         <v>46551</v>
       </c>
       <c r="H8" s="12">
         <f t="shared" si="3"/>
-        <v>-46551</v>
+        <v>5006</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>-46551</v>
+        <v>5006</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="2"/>
-        <v>-46551</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2107,26 +5581,32 @@
       <c r="B9" s="12">
         <v>5</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="23">
         <v>2</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="19">
+      <c r="D9" s="6">
+        <v>57129</v>
+      </c>
+      <c r="E9" s="1">
+        <v>57129</v>
+      </c>
+      <c r="F9" s="1">
+        <v>57129</v>
+      </c>
+      <c r="G9" s="16">
         <v>45609</v>
       </c>
       <c r="H9" s="12">
         <f t="shared" si="3"/>
-        <v>-45609</v>
+        <v>11520</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>-45609</v>
+        <v>11520</v>
       </c>
       <c r="J9" s="10">
         <f t="shared" si="2"/>
-        <v>-45609</v>
+        <v>11520</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2136,26 +5616,32 @@
       <c r="B10" s="12">
         <v>5</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="23">
         <v>2</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="19">
+      <c r="D10" s="6">
+        <v>48587</v>
+      </c>
+      <c r="E10" s="1">
+        <v>46794</v>
+      </c>
+      <c r="F10" s="1">
+        <v>46794</v>
+      </c>
+      <c r="G10" s="16">
         <v>43149</v>
       </c>
       <c r="H10" s="12">
         <f t="shared" si="3"/>
-        <v>-43149</v>
+        <v>5438</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>-43149</v>
+        <v>3645</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="2"/>
-        <v>-43149</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2169,10 +5655,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="19" t="s">
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="12" t="s">
@@ -2195,10 +5687,16 @@
       <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="19">
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="16">
         <v>164440</v>
       </c>
       <c r="H12" s="12" t="s">
@@ -2207,9 +5705,8 @@
       <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="10">
-        <f t="shared" si="2"/>
-        <v>-164440</v>
+      <c r="J12" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2222,10 +5719,16 @@
       <c r="C13" s="8">
         <v>3</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="19">
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="16">
         <v>158760</v>
       </c>
       <c r="H13" s="12" t="s">
@@ -2234,9 +5737,8 @@
       <c r="I13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="10">
-        <f t="shared" si="2"/>
-        <v>-158760</v>
+      <c r="J13" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2249,10 +5751,16 @@
       <c r="C14" s="8">
         <v>3</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="19">
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="16">
         <v>157884</v>
       </c>
       <c r="H14" s="12" t="s">
@@ -2261,9 +5769,8 @@
       <c r="I14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="10">
-        <f t="shared" si="2"/>
-        <v>-157884</v>
+      <c r="J14" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2276,10 +5783,16 @@
       <c r="C15" s="8">
         <v>3</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="19">
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="16">
         <v>154913</v>
       </c>
       <c r="H15" s="12" t="s">
@@ -2288,9 +5801,8 @@
       <c r="I15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="10">
-        <f t="shared" si="2"/>
-        <v>-154913</v>
+      <c r="J15" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2304,10 +5816,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="19">
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="16">
         <v>165765</v>
       </c>
       <c r="H16" s="12" t="s">
@@ -2316,9 +5834,8 @@
       <c r="I16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="10">
-        <f t="shared" si="2"/>
-        <v>-165765</v>
+      <c r="J16" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2332,10 +5849,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="19">
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="16">
         <v>178511</v>
       </c>
       <c r="H17" s="12" t="s">
@@ -2344,9 +5867,8 @@
       <c r="I17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="10">
-        <f t="shared" si="2"/>
-        <v>-178511</v>
+      <c r="J17" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2360,10 +5882,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="19">
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="16">
         <v>180204</v>
       </c>
       <c r="H18" s="12" t="s">
@@ -2372,9 +5900,8 @@
       <c r="I18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="10">
-        <f t="shared" si="2"/>
-        <v>-180204</v>
+      <c r="J18" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16" thickBot="1">
@@ -2388,10 +5915,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="20">
+      <c r="D19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="17">
         <v>180483</v>
       </c>
       <c r="H19" s="13" t="s">
@@ -2400,9 +5933,8 @@
       <c r="I19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="11">
-        <f t="shared" si="2"/>
-        <v>-180483</v>
+      <c r="J19" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2413,6 +5945,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2426,7 +5959,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D3" activeCellId="1" sqref="A3:A10 D3:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2435,495 +5968,605 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19" thickBot="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="59" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="59" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="60"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="70"/>
     </row>
     <row r="2" spans="1:10" ht="19" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="42">
+      <c r="A3" s="34">
         <v>8</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="35">
         <v>4</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="71">
         <v>2</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="46">
+      <c r="D3" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="35">
         <v>34311</v>
       </c>
-      <c r="H3" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="64">
+      <c r="F3" s="35">
+        <v>34311</v>
+      </c>
+      <c r="G3" s="37">
+        <v>34311</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="47">
         <v>0</v>
       </c>
-      <c r="J3" s="47">
-        <v>-34311</v>
+      <c r="J3" s="38">
+        <f>F3-G3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="35">
         <v>4</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="71">
         <v>2</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="46">
+      <c r="D4" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="35">
+        <v>31581</v>
+      </c>
+      <c r="F4" s="35">
+        <v>31581</v>
+      </c>
+      <c r="G4" s="37">
         <v>31490</v>
       </c>
-      <c r="H4" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="43">
+      <c r="H4" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="35">
         <v>91</v>
       </c>
-      <c r="J4" s="47">
-        <v>-31490</v>
+      <c r="J4" s="38">
+        <f t="shared" ref="J4:J10" si="0">F4-G4</f>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="35">
         <v>4</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="71">
         <v>2</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="46">
+      <c r="D5" s="36">
+        <v>32827</v>
+      </c>
+      <c r="E5" s="35">
+        <v>32827</v>
+      </c>
+      <c r="F5" s="35">
+        <v>32827</v>
+      </c>
+      <c r="G5" s="37">
         <v>32731</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="35">
         <v>96</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="35">
         <v>96</v>
       </c>
-      <c r="J5" s="47">
-        <v>-32731</v>
+      <c r="J5" s="38">
+        <f t="shared" si="0"/>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="35">
         <v>4</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="71">
         <v>2</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="46">
+      <c r="D6" s="36">
+        <v>30274</v>
+      </c>
+      <c r="E6" s="35">
+        <v>30274</v>
+      </c>
+      <c r="F6" s="35">
+        <v>30274</v>
+      </c>
+      <c r="G6" s="37">
         <v>29879</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="35">
         <v>395</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="35">
         <v>395</v>
       </c>
-      <c r="J6" s="47">
-        <v>-29879</v>
+      <c r="J6" s="38">
+        <f t="shared" si="0"/>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="42">
+      <c r="A7" s="34">
         <v>10</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="35">
         <v>5</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="72">
         <v>2</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="46">
+      <c r="D7" s="36">
+        <v>53910</v>
+      </c>
+      <c r="E7" s="35">
+        <v>53910</v>
+      </c>
+      <c r="F7" s="35">
+        <v>53910</v>
+      </c>
+      <c r="G7" s="37">
         <v>48942</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="35">
         <v>4968</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="35">
         <v>4968</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="38">
+        <f t="shared" si="0"/>
         <v>4968</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="35">
         <v>5</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="72">
         <v>2</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="46">
+      <c r="D8" s="36">
+        <v>51693</v>
+      </c>
+      <c r="E8" s="35">
+        <v>51693</v>
+      </c>
+      <c r="F8" s="35">
+        <v>51505</v>
+      </c>
+      <c r="G8" s="37">
         <v>46551</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="35">
         <v>5006</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="35">
         <v>4954</v>
       </c>
-      <c r="J8" s="47">
+      <c r="J8" s="38">
+        <f t="shared" si="0"/>
         <v>4954</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="35">
         <v>5</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="72">
         <v>2</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="46">
+      <c r="D9" s="36">
+        <v>57129</v>
+      </c>
+      <c r="E9" s="35">
+        <v>57129</v>
+      </c>
+      <c r="F9" s="35">
+        <v>56059</v>
+      </c>
+      <c r="G9" s="37">
         <v>45609</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="35">
         <v>11520</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="35">
         <v>11520</v>
       </c>
-      <c r="J9" s="47">
-        <v>11520</v>
+      <c r="J9" s="38">
+        <f t="shared" si="0"/>
+        <v>10450</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="35">
         <v>5</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="72">
         <v>2</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="46">
+      <c r="D10" s="36">
+        <v>48387</v>
+      </c>
+      <c r="E10" s="35">
+        <v>48387</v>
+      </c>
+      <c r="F10" s="35">
+        <v>48387</v>
+      </c>
+      <c r="G10" s="37">
         <v>43149</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="35">
         <v>5238</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="35">
         <v>4545</v>
       </c>
-      <c r="J10" s="47">
-        <v>4545</v>
+      <c r="J10" s="38">
+        <f t="shared" si="0"/>
+        <v>5238</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="42">
+      <c r="A11" s="34">
         <v>12</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="35">
         <v>6</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="71">
         <v>3</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="47" t="s">
+      <c r="D11" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="38" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="42">
+      <c r="A12" s="34">
         <v>14</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="35">
         <v>7</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="71">
         <v>3</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="46">
+      <c r="D12" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="37">
         <v>164440</v>
       </c>
-      <c r="H12" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="47">
-        <v>-164440</v>
+      <c r="H12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="35">
         <v>7</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="71">
         <v>3</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="46">
+      <c r="D13" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="37">
         <v>158760</v>
       </c>
-      <c r="H13" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="47">
-        <v>-158760</v>
+      <c r="H13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="35">
         <v>7</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="71">
         <v>3</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="46">
+      <c r="D14" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="37">
         <v>157884</v>
       </c>
-      <c r="H14" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="47">
-        <v>-157884</v>
+      <c r="H14" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="35">
         <v>7</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="71">
         <v>3</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="46">
+      <c r="D15" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="37">
         <v>154913</v>
       </c>
-      <c r="H15" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="47">
-        <v>-154913</v>
+      <c r="H15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="42">
+      <c r="A16" s="34">
         <v>16</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="35">
         <v>8</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="71">
         <v>4</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="46">
+      <c r="D16" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="37">
         <v>165765</v>
       </c>
-      <c r="H16" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="47">
-        <v>-165765</v>
+      <c r="H16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="35">
         <v>8</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="71">
         <v>4</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="46">
+      <c r="D17" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="37">
         <v>178511</v>
       </c>
-      <c r="H17" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="47">
-        <v>-178511</v>
+      <c r="H17" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="35">
         <v>8</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="71">
         <v>4</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="46">
+      <c r="D18" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="37">
         <v>180204</v>
       </c>
-      <c r="H18" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="47">
-        <v>-180204</v>
+      <c r="H18" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16" thickBot="1">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="40">
         <v>8</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="41">
         <v>4</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="53">
+      <c r="D19" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="43">
         <v>180483</v>
       </c>
-      <c r="H19" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="54">
-        <v>-180483</v>
+      <c r="H19" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="44" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2934,6 +6577,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2947,7 +6591,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F19"/>
+      <selection activeCell="D3" activeCellId="1" sqref="A3:A10 D3:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2956,52 +6600,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19" thickBot="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="22" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="19" thickBot="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="21" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3016,22 +6660,28 @@
         <f>B3/2</f>
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="19">
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
         <v>34311</v>
       </c>
+      <c r="F3" s="1">
+        <v>34311</v>
+      </c>
+      <c r="G3" s="16">
+        <v>34311</v>
+      </c>
       <c r="H3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="46">
         <f>E3-G3</f>
-        <v>-34311</v>
+        <v>0</v>
       </c>
       <c r="J3" s="10">
         <f>F3-G3</f>
-        <v>-34311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3045,22 +6695,28 @@
         <f t="shared" ref="C4:C19" si="0">B4/2</f>
         <v>2</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="19">
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>31581</v>
+      </c>
+      <c r="F4" s="1">
+        <v>31581</v>
+      </c>
+      <c r="G4" s="16">
         <v>31490</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I19" si="1">E4-G4</f>
-        <v>-31490</v>
+        <f t="shared" ref="I4:I10" si="1">E4-G4</f>
+        <v>91</v>
       </c>
       <c r="J4" s="10">
         <f t="shared" ref="J4:J19" si="2">F4-G4</f>
-        <v>-31490</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3074,23 +6730,29 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="19">
+      <c r="D5" s="6">
+        <v>32827</v>
+      </c>
+      <c r="E5" s="1">
+        <v>32827</v>
+      </c>
+      <c r="F5" s="1">
+        <v>32827</v>
+      </c>
+      <c r="G5" s="16">
         <v>32731</v>
       </c>
       <c r="H5" s="12">
         <f>D5-G5</f>
-        <v>-32731</v>
+        <v>96</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>-32731</v>
+        <v>96</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" si="2"/>
-        <v>-32731</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3104,23 +6766,29 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="19">
+      <c r="D6" s="6">
+        <v>30274</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30274</v>
+      </c>
+      <c r="F6" s="1">
+        <v>30274</v>
+      </c>
+      <c r="G6" s="16">
         <v>29879</v>
       </c>
       <c r="H6" s="12">
         <f t="shared" ref="H6:H10" si="3">D6-G6</f>
-        <v>-29879</v>
+        <v>395</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>-29879</v>
+        <v>395</v>
       </c>
       <c r="J6" s="10">
         <f t="shared" si="2"/>
-        <v>-29879</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3130,26 +6798,32 @@
       <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="23">
         <v>2</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="19">
+      <c r="D7" s="6">
+        <v>53910</v>
+      </c>
+      <c r="E7" s="1">
+        <v>53910</v>
+      </c>
+      <c r="F7" s="1">
+        <v>53910</v>
+      </c>
+      <c r="G7" s="16">
         <v>48942</v>
       </c>
       <c r="H7" s="12">
         <f t="shared" si="3"/>
-        <v>-48942</v>
+        <v>4968</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>-48942</v>
+        <v>4968</v>
       </c>
       <c r="J7" s="10">
         <f t="shared" si="2"/>
-        <v>-48942</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3159,26 +6833,32 @@
       <c r="B8" s="12">
         <v>5</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="23">
         <v>2</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="19">
+      <c r="D8" s="6">
+        <v>51490</v>
+      </c>
+      <c r="E8" s="1">
+        <v>51490</v>
+      </c>
+      <c r="F8" s="1">
+        <v>51490</v>
+      </c>
+      <c r="G8" s="16">
         <v>46551</v>
       </c>
       <c r="H8" s="12">
         <f t="shared" si="3"/>
-        <v>-46551</v>
+        <v>4939</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>-46551</v>
+        <v>4939</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="2"/>
-        <v>-46551</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3188,26 +6868,32 @@
       <c r="B9" s="12">
         <v>5</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="23">
         <v>2</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="19">
+      <c r="D9" s="6">
+        <v>57129</v>
+      </c>
+      <c r="E9" s="1">
+        <v>57129</v>
+      </c>
+      <c r="F9" s="1">
+        <v>57129</v>
+      </c>
+      <c r="G9" s="16">
         <v>45609</v>
       </c>
       <c r="H9" s="12">
         <f t="shared" si="3"/>
-        <v>-45609</v>
+        <v>11520</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>-45609</v>
+        <v>11520</v>
       </c>
       <c r="J9" s="10">
         <f t="shared" si="2"/>
-        <v>-45609</v>
+        <v>11520</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3217,26 +6903,32 @@
       <c r="B10" s="12">
         <v>5</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="23">
         <v>2</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="19">
+      <c r="D10" s="6">
+        <v>48587</v>
+      </c>
+      <c r="E10" s="1">
+        <v>48540</v>
+      </c>
+      <c r="F10" s="1">
+        <v>47775</v>
+      </c>
+      <c r="G10" s="16">
         <v>43149</v>
       </c>
       <c r="H10" s="12">
         <f t="shared" si="3"/>
-        <v>-43149</v>
+        <v>5438</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>-43149</v>
+        <v>5391</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="2"/>
-        <v>-43149</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3250,10 +6942,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="19" t="s">
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="12" t="s">
@@ -3276,10 +6974,16 @@
       <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="19">
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="16">
         <v>164440</v>
       </c>
       <c r="H12" s="12" t="s">
@@ -3288,9 +6992,8 @@
       <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="10">
-        <f t="shared" si="2"/>
-        <v>-164440</v>
+      <c r="J12" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3303,10 +7006,16 @@
       <c r="C13" s="8">
         <v>3</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="19">
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="16">
         <v>158760</v>
       </c>
       <c r="H13" s="12" t="s">
@@ -3315,9 +7024,8 @@
       <c r="I13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="10">
-        <f t="shared" si="2"/>
-        <v>-158760</v>
+      <c r="J13" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3330,10 +7038,16 @@
       <c r="C14" s="8">
         <v>3</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="19">
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="16">
         <v>157884</v>
       </c>
       <c r="H14" s="12" t="s">
@@ -3342,9 +7056,8 @@
       <c r="I14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="10">
-        <f t="shared" si="2"/>
-        <v>-157884</v>
+      <c r="J14" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3357,10 +7070,16 @@
       <c r="C15" s="8">
         <v>3</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="19">
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="16">
         <v>154913</v>
       </c>
       <c r="H15" s="12" t="s">
@@ -3369,9 +7088,8 @@
       <c r="I15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="10">
-        <f t="shared" si="2"/>
-        <v>-154913</v>
+      <c r="J15" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3385,10 +7103,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="19">
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="16">
         <v>165765</v>
       </c>
       <c r="H16" s="12" t="s">
@@ -3397,9 +7121,8 @@
       <c r="I16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="10">
-        <f t="shared" si="2"/>
-        <v>-165765</v>
+      <c r="J16" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3413,10 +7136,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="19">
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="16">
         <v>178511</v>
       </c>
       <c r="H17" s="12" t="s">
@@ -3425,9 +7154,8 @@
       <c r="I17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="10">
-        <f t="shared" si="2"/>
-        <v>-178511</v>
+      <c r="J17" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3441,10 +7169,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="19">
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="16">
         <v>180204</v>
       </c>
       <c r="H18" s="12" t="s">
@@ -3453,9 +7187,8 @@
       <c r="I18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="10">
-        <f t="shared" si="2"/>
-        <v>-180204</v>
+      <c r="J18" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16" thickBot="1">
@@ -3469,10 +7202,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="20">
+      <c r="D19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="17">
         <v>180483</v>
       </c>
       <c r="H19" s="13" t="s">
@@ -3481,9 +7220,8 @@
       <c r="I19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="11">
-        <f t="shared" si="2"/>
-        <v>-180483</v>
+      <c r="J19" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3494,6 +7232,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3507,7 +7246,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3516,58 +7255,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" thickBot="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:8" ht="19" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="74">
+      <c r="D2" s="54">
         <v>1</v>
       </c>
-      <c r="E2" s="71">
+      <c r="E2" s="51">
         <v>4</v>
       </c>
-      <c r="F2" s="71">
+      <c r="F2" s="51">
         <v>7</v>
       </c>
-      <c r="G2" s="75">
+      <c r="G2" s="55">
         <v>9</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="48" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="42">
+      <c r="A3" s="34">
         <v>8</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="35">
         <v>4</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="52">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -3576,24 +7315,24 @@
       <c r="G3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="49">
         <v>34311</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="35">
         <v>4</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="52">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -3602,24 +7341,24 @@
       <c r="G4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="69">
+      <c r="H4" s="49">
         <v>31490</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="35">
         <v>4</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="52">
         <v>2</v>
       </c>
       <c r="D5" s="6">
         <v>32827</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <v>32827</v>
       </c>
       <c r="F5" s="1">
@@ -3628,50 +7367,50 @@
       <c r="G5" s="10">
         <v>32827</v>
       </c>
-      <c r="H5" s="69">
+      <c r="H5" s="49">
         <v>32731</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="35">
         <v>4</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="52">
         <v>2</v>
       </c>
       <c r="D6" s="6">
         <v>30274</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <v>30274</v>
       </c>
       <c r="F6" s="1">
         <v>30274</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="74">
         <v>30274</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="49">
         <v>29879</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="42">
+      <c r="A7" s="34">
         <v>10</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="35">
         <v>5</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="53">
         <v>2</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="45">
         <v>53910</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
         <v>53910</v>
       </c>
       <c r="F7" s="1">
@@ -3680,50 +7419,50 @@
       <c r="G7" s="10">
         <v>53910</v>
       </c>
-      <c r="H7" s="69">
+      <c r="H7" s="49">
         <v>48942</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="35">
         <v>5</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="53">
         <v>2</v>
       </c>
       <c r="D8" s="6">
         <v>51557</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <v>51557</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="46">
         <v>51693</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="73">
         <v>51490</v>
       </c>
-      <c r="H8" s="69">
+      <c r="H8" s="49">
         <v>46551</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="35">
         <v>5</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="53">
         <v>2</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="45">
         <v>57129</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
         <v>57129</v>
       </c>
       <c r="F9" s="1">
@@ -3732,50 +7471,50 @@
       <c r="G9" s="10">
         <v>57129</v>
       </c>
-      <c r="H9" s="69">
+      <c r="H9" s="49">
         <v>45609</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="35">
         <v>5</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="53">
         <v>2</v>
       </c>
       <c r="D10" s="6">
         <v>48387</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="6">
         <v>48587</v>
       </c>
       <c r="F10" s="1">
         <v>48387</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="73">
         <v>48587</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="49">
         <v>43149</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="42">
+      <c r="A11" s="34">
         <v>12</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="35">
         <v>6</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="52">
         <v>3</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -3784,24 +7523,24 @@
       <c r="G11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="69" t="s">
+      <c r="H11" s="49" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="42">
+      <c r="A12" s="34">
         <v>14</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="35">
         <v>7</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="52">
         <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -3810,24 +7549,24 @@
       <c r="G12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="69">
+      <c r="H12" s="49">
         <v>164440</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="35">
         <v>7</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="52">
         <v>3</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -3836,24 +7575,24 @@
       <c r="G13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="69">
+      <c r="H13" s="49">
         <v>158760</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="35">
         <v>7</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="52">
         <v>3</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -3862,24 +7601,24 @@
       <c r="G14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="69">
+      <c r="H14" s="49">
         <v>157884</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="35">
         <v>7</v>
       </c>
-      <c r="C15" s="72">
+      <c r="C15" s="52">
         <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -3888,24 +7627,24 @@
       <c r="G15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="49">
         <v>154913</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="42">
+      <c r="A16" s="34">
         <v>16</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="35">
         <v>8</v>
       </c>
-      <c r="C16" s="72">
+      <c r="C16" s="52">
         <v>4</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -3914,24 +7653,24 @@
       <c r="G16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="69">
+      <c r="H16" s="49">
         <v>165765</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="35">
         <v>8</v>
       </c>
-      <c r="C17" s="72">
+      <c r="C17" s="52">
         <v>4</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -3940,24 +7679,24 @@
       <c r="G17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="69">
+      <c r="H17" s="49">
         <v>178511</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="35">
         <v>8</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C18" s="52">
         <v>4</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -3966,24 +7705,24 @@
       <c r="G18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="69">
+      <c r="H18" s="49">
         <v>180204</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" thickBot="1">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="40">
         <v>8</v>
       </c>
-      <c r="C19" s="76">
+      <c r="C19" s="56">
         <v>4</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -3992,7 +7731,7 @@
       <c r="G19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="70">
+      <c r="H19" s="50">
         <v>180483</v>
       </c>
     </row>
@@ -4003,6 +7742,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4015,8 +7755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D3" activeCellId="1" sqref="A3:A10 D3:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4025,351 +7765,488 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" thickBot="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:8" ht="19" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="74">
+      <c r="D2" s="54">
         <v>1</v>
       </c>
-      <c r="E2" s="71">
+      <c r="E2" s="51">
         <v>4</v>
       </c>
-      <c r="F2" s="71">
+      <c r="F2" s="51">
         <v>7</v>
       </c>
-      <c r="G2" s="75">
+      <c r="G2" s="55">
         <v>9</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="48" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="42">
+      <c r="A3" s="34">
         <v>8</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="35">
         <v>4</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="52">
         <v>2</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="69">
+      <c r="D3" s="1">
         <v>34311</v>
       </c>
+      <c r="E3" s="1">
+        <v>34311</v>
+      </c>
+      <c r="F3" s="35">
+        <v>34311</v>
+      </c>
+      <c r="G3" s="1">
+        <v>34311</v>
+      </c>
+      <c r="H3" s="49">
+        <v>34311</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="35">
         <v>4</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="52">
         <v>2</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="69">
+      <c r="D4" s="1">
+        <v>31581</v>
+      </c>
+      <c r="E4" s="1">
+        <v>31581</v>
+      </c>
+      <c r="F4" s="35">
+        <v>31581</v>
+      </c>
+      <c r="G4" s="1">
+        <v>31581</v>
+      </c>
+      <c r="H4" s="49">
         <v>31490</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="35">
         <v>4</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="52">
         <v>2</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="69">
+      <c r="D5" s="1">
+        <v>32827</v>
+      </c>
+      <c r="E5" s="1">
+        <v>32827</v>
+      </c>
+      <c r="F5" s="35">
+        <v>32827</v>
+      </c>
+      <c r="G5" s="1">
+        <v>32827</v>
+      </c>
+      <c r="H5" s="49">
         <v>32731</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="35">
         <v>4</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="52">
         <v>2</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="69">
+      <c r="D6" s="1">
+        <v>30274</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30274</v>
+      </c>
+      <c r="F6" s="35">
+        <v>30274</v>
+      </c>
+      <c r="G6" s="1">
+        <v>30274</v>
+      </c>
+      <c r="H6" s="49">
         <v>29879</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="42">
+      <c r="A7" s="34">
         <v>10</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="35">
         <v>5</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="53">
         <v>2</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="69">
+      <c r="D7" s="46">
+        <v>53910</v>
+      </c>
+      <c r="E7" s="1">
+        <v>53910</v>
+      </c>
+      <c r="F7" s="35">
+        <v>53910</v>
+      </c>
+      <c r="G7" s="1">
+        <v>53910</v>
+      </c>
+      <c r="H7" s="49">
         <v>48942</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="35">
         <v>5</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="53">
         <v>2</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="69">
+      <c r="D8" s="1">
+        <v>51505</v>
+      </c>
+      <c r="E8" s="1">
+        <v>51557</v>
+      </c>
+      <c r="F8" s="35">
+        <v>51693</v>
+      </c>
+      <c r="G8" s="1">
+        <v>51490</v>
+      </c>
+      <c r="H8" s="49">
         <v>46551</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="35">
         <v>5</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="53">
         <v>2</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="69">
+      <c r="D9" s="46">
+        <v>57129</v>
+      </c>
+      <c r="E9" s="1">
+        <v>57129</v>
+      </c>
+      <c r="F9" s="35">
+        <v>57129</v>
+      </c>
+      <c r="G9" s="1">
+        <v>57129</v>
+      </c>
+      <c r="H9" s="49">
         <v>45609</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="35">
         <v>5</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="53">
         <v>2</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="69">
+      <c r="D10" s="1">
+        <v>47694</v>
+      </c>
+      <c r="E10" s="1">
+        <v>46794</v>
+      </c>
+      <c r="F10" s="35">
+        <v>48387</v>
+      </c>
+      <c r="G10" s="1">
+        <v>48540</v>
+      </c>
+      <c r="H10" s="49">
         <v>43149</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="42">
+      <c r="A11" s="34">
         <v>12</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="35">
         <v>6</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="52">
         <v>3</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="69" t="s">
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="49" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="42">
+      <c r="A12" s="34">
         <v>14</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="35">
         <v>7</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="52">
         <v>3</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="69">
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="49">
         <v>164440</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="35">
         <v>7</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="52">
         <v>3</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="69">
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="49">
         <v>158760</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="35">
         <v>7</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="52">
         <v>3</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="69">
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="49">
         <v>157884</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="35">
         <v>7</v>
       </c>
-      <c r="C15" s="72">
+      <c r="C15" s="52">
         <v>3</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="69">
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="49">
         <v>154913</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="42">
+      <c r="A16" s="34">
         <v>16</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="35">
         <v>8</v>
       </c>
-      <c r="C16" s="72">
+      <c r="C16" s="52">
         <v>4</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="69">
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="49">
         <v>165765</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="35">
         <v>8</v>
       </c>
-      <c r="C17" s="72">
+      <c r="C17" s="52">
         <v>4</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="69">
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="49">
         <v>178511</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="35">
         <v>8</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C18" s="52">
         <v>4</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="69">
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="49">
         <v>180204</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" thickBot="1">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="40">
         <v>8</v>
       </c>
-      <c r="C19" s="76">
+      <c r="C19" s="56">
         <v>4</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="70">
+      <c r="D19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="50">
         <v>180483</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="F22" s="16"/>
+      <c r="F22" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4377,6 +8254,7 @@
     <mergeCell ref="D1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4390,7 +8268,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="D3" activeCellId="1" sqref="A3:A10 D3:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4399,347 +8277,483 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" thickBot="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:8" ht="19" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="74">
+      <c r="D2" s="54">
         <v>1</v>
       </c>
-      <c r="E2" s="71">
+      <c r="E2" s="51">
         <v>4</v>
       </c>
-      <c r="F2" s="71">
+      <c r="F2" s="51">
         <v>7</v>
       </c>
-      <c r="G2" s="75">
+      <c r="G2" s="55">
         <v>9</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="48" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="42">
+      <c r="A3" s="34">
         <v>8</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="35">
         <v>4</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="52">
         <v>2</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="69">
+      <c r="D3" s="1">
         <v>34311</v>
       </c>
+      <c r="E3" s="1">
+        <v>34311</v>
+      </c>
+      <c r="F3" s="35">
+        <v>34311</v>
+      </c>
+      <c r="G3" s="1">
+        <v>34311</v>
+      </c>
+      <c r="H3" s="49">
+        <v>34311</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="35">
         <v>4</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="52">
         <v>2</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="69">
+      <c r="D4" s="1">
+        <v>31581</v>
+      </c>
+      <c r="E4" s="1">
+        <v>31581</v>
+      </c>
+      <c r="F4" s="35">
+        <v>31581</v>
+      </c>
+      <c r="G4" s="1">
+        <v>31581</v>
+      </c>
+      <c r="H4" s="49">
         <v>31490</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="35">
         <v>4</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="52">
         <v>2</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="69">
+      <c r="D5" s="1">
+        <v>32827</v>
+      </c>
+      <c r="E5" s="1">
+        <v>32827</v>
+      </c>
+      <c r="F5" s="35">
+        <v>32827</v>
+      </c>
+      <c r="G5" s="1">
+        <v>32827</v>
+      </c>
+      <c r="H5" s="49">
         <v>32731</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="35">
         <v>4</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="52">
         <v>2</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="69">
+      <c r="D6" s="1">
+        <v>30274</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30274</v>
+      </c>
+      <c r="F6" s="35">
+        <v>30274</v>
+      </c>
+      <c r="G6" s="1">
+        <v>30274</v>
+      </c>
+      <c r="H6" s="49">
         <v>29879</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="42">
+      <c r="A7" s="34">
         <v>10</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="35">
         <v>5</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="53">
         <v>2</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="69">
+      <c r="D7" s="46">
+        <v>53910</v>
+      </c>
+      <c r="E7" s="1">
+        <v>53910</v>
+      </c>
+      <c r="F7" s="35">
+        <v>53910</v>
+      </c>
+      <c r="G7" s="1">
+        <v>53910</v>
+      </c>
+      <c r="H7" s="49">
         <v>48942</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="35">
         <v>5</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="53">
         <v>2</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="69">
+      <c r="D8" s="46">
+        <v>51505</v>
+      </c>
+      <c r="E8" s="1">
+        <v>51505</v>
+      </c>
+      <c r="F8" s="35">
+        <v>51505</v>
+      </c>
+      <c r="G8" s="1">
+        <v>51490</v>
+      </c>
+      <c r="H8" s="49">
         <v>46551</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="35">
         <v>5</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="53">
         <v>2</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="69">
+      <c r="D9" s="46">
+        <v>57129</v>
+      </c>
+      <c r="E9" s="1">
+        <v>57129</v>
+      </c>
+      <c r="F9" s="35">
+        <v>56059</v>
+      </c>
+      <c r="G9" s="1">
+        <v>57129</v>
+      </c>
+      <c r="H9" s="49">
         <v>45609</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="35">
         <v>5</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="53">
         <v>2</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="69">
+      <c r="D10" s="1">
+        <v>47694</v>
+      </c>
+      <c r="E10" s="1">
+        <v>46794</v>
+      </c>
+      <c r="F10" s="35">
+        <v>48387</v>
+      </c>
+      <c r="G10" s="1">
+        <v>47775</v>
+      </c>
+      <c r="H10" s="49">
         <v>43149</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="42">
+      <c r="A11" s="34">
         <v>12</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="35">
         <v>6</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="52">
         <v>3</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="69" t="s">
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="49" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="42">
+      <c r="A12" s="34">
         <v>14</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="35">
         <v>7</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="52">
         <v>3</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="69">
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="49">
         <v>164440</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="35">
         <v>7</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="52">
         <v>3</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="69">
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="49">
         <v>158760</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="35">
         <v>7</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="52">
         <v>3</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="69">
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="49">
         <v>157884</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="35">
         <v>7</v>
       </c>
-      <c r="C15" s="72">
+      <c r="C15" s="52">
         <v>3</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="69">
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="49">
         <v>154913</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="42">
+      <c r="A16" s="34">
         <v>16</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="35">
         <v>8</v>
       </c>
-      <c r="C16" s="72">
+      <c r="C16" s="52">
         <v>4</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="69">
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="49">
         <v>165765</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="35">
         <v>8</v>
       </c>
-      <c r="C17" s="72">
+      <c r="C17" s="52">
         <v>4</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="69">
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="49">
         <v>178511</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="35">
         <v>8</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C18" s="52">
         <v>4</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="69">
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="49">
         <v>180204</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" thickBot="1">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="40">
         <v>8</v>
       </c>
-      <c r="C19" s="76">
+      <c r="C19" s="56">
         <v>4</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="70">
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="50">
         <v>180483</v>
       </c>
     </row>
@@ -4749,6 +8763,8 @@
     <mergeCell ref="D1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/resultaatLocalSolver.xlsx
+++ b/resultaatLocalSolver.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="-35500" yWindow="-1320" windowWidth="25600" windowHeight="10460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="annealingLVL=1" sheetId="4" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="comp1min" sheetId="9" r:id="rId5"/>
     <sheet name="comp5min" sheetId="10" r:id="rId6"/>
     <sheet name="comp15min" sheetId="11" r:id="rId7"/>
+    <sheet name="extra" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="36">
   <si>
     <t>instance</t>
   </si>
@@ -87,9 +88,6 @@
     <t>Optimal/Best known</t>
   </si>
   <si>
-    <t>Difference with Optimal/Best known</t>
-  </si>
-  <si>
     <t>15min</t>
   </si>
   <si>
@@ -116,12 +114,40 @@
   <si>
     <t>Runtime = 5 min</t>
   </si>
+  <si>
+    <t>umps14</t>
+  </si>
+  <si>
+    <t>Annealing lvl</t>
+  </si>
+  <si>
+    <t>umps30</t>
+  </si>
+  <si>
+    <t>Optimal</t>
+  </si>
+  <si>
+    <t>Difference travel distance and optimal</t>
+  </si>
+  <si>
+    <t>Gap</t>
+  </si>
+  <si>
+    <t>instances</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,21 +205,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -545,95 +565,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -684,65 +812,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -755,106 +850,254 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="85" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="85" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="85" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="85" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="85" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="85" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="85" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="85" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="85" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="85" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="85" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="85" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="90">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -897,6 +1140,8 @@
     <cellStyle name="Gevolgde hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -939,7 +1184,10 @@
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
+    <cellStyle name="Procent" xfId="85" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1287,11 +1535,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2120941224"/>
-        <c:axId val="-2112762376"/>
+        <c:axId val="2116445112"/>
+        <c:axId val="2116448280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2120941224"/>
+        <c:axId val="2116445112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1548,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112762376"/>
+        <c:crossAx val="2116448280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1308,7 +1556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112762376"/>
+        <c:axId val="2116448280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,16 +1567,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120941224"/>
+        <c:crossAx val="2116445112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-      </c:dTable>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1693,11 +1935,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2119161224"/>
-        <c:axId val="-2111402792"/>
+        <c:axId val="2116500344"/>
+        <c:axId val="2116503464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2119161224"/>
+        <c:axId val="2116500344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,7 +1948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111402792"/>
+        <c:crossAx val="2116503464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1714,7 +1956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111402792"/>
+        <c:axId val="2116503464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1725,16 +1967,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119161224"/>
+        <c:crossAx val="2116500344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-      </c:dTable>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -2094,11 +2330,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2112044600"/>
-        <c:axId val="-2120994392"/>
+        <c:axId val="2117534184"/>
+        <c:axId val="2117537304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112044600"/>
+        <c:axId val="2117534184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2107,7 +2343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120994392"/>
+        <c:crossAx val="2117537304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2115,7 +2351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120994392"/>
+        <c:axId val="2117537304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2126,16 +2362,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112044600"/>
+        <c:crossAx val="2117534184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-      </c:dTable>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -2500,11 +2730,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2133264744"/>
-        <c:axId val="-2121056824"/>
+        <c:axId val="2117596056"/>
+        <c:axId val="2117599176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2133264744"/>
+        <c:axId val="2117596056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,7 +2743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121056824"/>
+        <c:crossAx val="2117599176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2521,7 +2751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121056824"/>
+        <c:axId val="2117599176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,16 +2762,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133264744"/>
+        <c:crossAx val="2117596056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-      </c:dTable>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -2974,11 +3198,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2119372920"/>
-        <c:axId val="-2120051320"/>
+        <c:axId val="2117651192"/>
+        <c:axId val="2117654248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2119372920"/>
+        <c:axId val="2117651192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2987,7 +3211,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120051320"/>
+        <c:crossAx val="2117654248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2995,7 +3219,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120051320"/>
+        <c:axId val="2117654248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3006,16 +3230,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119372920"/>
+        <c:crossAx val="2117651192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-      </c:dTable>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -3453,11 +3671,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2115941208"/>
-        <c:axId val="2138701832"/>
+        <c:axId val="2039229064"/>
+        <c:axId val="2039232120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2115941208"/>
+        <c:axId val="2039229064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3466,7 +3684,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138701832"/>
+        <c:crossAx val="2039232120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3474,7 +3692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138701832"/>
+        <c:axId val="2039232120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3485,16 +3703,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115941208"/>
+        <c:crossAx val="2039229064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-      </c:dTable>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -3927,11 +4139,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2129673912"/>
-        <c:axId val="2130505672"/>
+        <c:axId val="2117721400"/>
+        <c:axId val="2117724456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2129673912"/>
+        <c:axId val="2117721400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3940,7 +4152,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130505672"/>
+        <c:crossAx val="2117724456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3948,7 +4160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130505672"/>
+        <c:axId val="2117724456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3959,16 +4171,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129673912"/>
+        <c:crossAx val="2117721400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-      </c:dTable>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -3991,16 +4197,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4026,16 +4232,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1422400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4061,16 +4267,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1473200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4096,16 +4302,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4131,16 +4337,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4166,16 +4372,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4201,16 +4407,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4556,8 +4762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4566,22 +4772,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19" thickBot="1">
-      <c r="A1" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="57" t="s">
+      <c r="A1" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="107"/>
+      <c r="J1" s="108"/>
       <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" ht="19" thickBot="1">
@@ -4601,7 +4807,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>19</v>
@@ -4613,7 +4819,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="15"/>
     </row>
@@ -4643,12 +4849,12 @@
       <c r="H3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="46">
-        <f>E3-G3</f>
+      <c r="I3" s="78">
+        <f>(E3-G3)/E3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="10">
-        <f>F3-G3</f>
+      <c r="J3" s="84">
+        <f>(F3-$G3)/F3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15"/>
@@ -4679,13 +4885,13 @@
       <c r="H4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="1">
-        <f t="shared" ref="I4:I10" si="1">E4-G4</f>
-        <v>91</v>
-      </c>
-      <c r="J4" s="10">
-        <f t="shared" ref="J4:J19" si="2">F4-G4</f>
-        <v>91</v>
+      <c r="I4" s="79">
+        <f>(E4-$G4)/E4</f>
+        <v>2.8814793705075835E-3</v>
+      </c>
+      <c r="J4" s="85">
+        <f>(F4-$G4)/F4</f>
+        <v>2.8814793705075835E-3</v>
       </c>
       <c r="K4" s="15"/>
     </row>
@@ -4712,17 +4918,17 @@
       <c r="G5" s="16">
         <v>32731</v>
       </c>
-      <c r="H5" s="12">
-        <f>D5-G5</f>
-        <v>96</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H5" s="77">
+        <f>(D5-$G5)/D5</f>
+        <v>2.9244219697200477E-3</v>
+      </c>
+      <c r="I5" s="77">
+        <f t="shared" ref="I5:J10" si="1">(E5-$G5)/E5</f>
+        <v>2.9244219697200477E-3</v>
+      </c>
+      <c r="J5" s="81">
         <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="J5" s="10">
-        <f t="shared" si="2"/>
-        <v>96</v>
+        <v>2.9244219697200477E-3</v>
       </c>
       <c r="K5" s="15"/>
     </row>
@@ -4749,17 +4955,17 @@
       <c r="G6" s="16">
         <v>29879</v>
       </c>
-      <c r="H6" s="12">
-        <f t="shared" ref="H6:H10" si="3">D6-G6</f>
-        <v>395</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6" s="77">
+        <f t="shared" ref="H6:H10" si="2">(D6-$G6)/D6</f>
+        <v>1.3047499504525335E-2</v>
+      </c>
+      <c r="I6" s="77">
         <f t="shared" si="1"/>
-        <v>395</v>
-      </c>
-      <c r="J6" s="10">
-        <f t="shared" si="2"/>
-        <v>395</v>
+        <v>1.3047499504525335E-2</v>
+      </c>
+      <c r="J6" s="81">
+        <f t="shared" si="1"/>
+        <v>1.3047499504525335E-2</v>
       </c>
       <c r="K6" s="15"/>
     </row>
@@ -4785,17 +4991,17 @@
       <c r="G7" s="16">
         <v>48942</v>
       </c>
-      <c r="H7" s="12">
-        <f t="shared" si="3"/>
-        <v>4968</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="H7" s="77">
+        <f t="shared" si="2"/>
+        <v>9.2153589315525877E-2</v>
+      </c>
+      <c r="I7" s="77">
         <f t="shared" si="1"/>
-        <v>4968</v>
-      </c>
-      <c r="J7" s="10">
-        <f t="shared" si="2"/>
-        <v>4968</v>
+        <v>9.2153589315525877E-2</v>
+      </c>
+      <c r="J7" s="81">
+        <f t="shared" si="1"/>
+        <v>9.2153589315525877E-2</v>
       </c>
       <c r="K7" s="15"/>
     </row>
@@ -4821,17 +5027,17 @@
       <c r="G8" s="16">
         <v>46551</v>
       </c>
-      <c r="H8" s="12">
-        <f t="shared" si="3"/>
-        <v>5006</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8" s="77">
+        <f t="shared" si="2"/>
+        <v>9.7096417557266709E-2</v>
+      </c>
+      <c r="I8" s="77">
         <f t="shared" si="1"/>
-        <v>4954</v>
-      </c>
-      <c r="J8" s="10">
-        <f t="shared" si="2"/>
-        <v>4954</v>
+        <v>9.6184836423648196E-2</v>
+      </c>
+      <c r="J8" s="81">
+        <f t="shared" si="1"/>
+        <v>9.6184836423648196E-2</v>
       </c>
       <c r="K8" s="15"/>
     </row>
@@ -4857,17 +5063,17 @@
       <c r="G9" s="16">
         <v>45609</v>
       </c>
-      <c r="H9" s="12">
-        <f t="shared" si="3"/>
-        <v>11520</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="H9" s="77">
+        <f t="shared" si="2"/>
+        <v>0.20164889985821563</v>
+      </c>
+      <c r="I9" s="77">
         <f t="shared" si="1"/>
-        <v>11520</v>
-      </c>
-      <c r="J9" s="10">
-        <f t="shared" si="2"/>
-        <v>11520</v>
+        <v>0.20164889985821563</v>
+      </c>
+      <c r="J9" s="81">
+        <f t="shared" si="1"/>
+        <v>0.20164889985821563</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -4893,17 +5099,17 @@
       <c r="G10" s="16">
         <v>43149</v>
       </c>
-      <c r="H10" s="12">
-        <f t="shared" si="3"/>
-        <v>5238</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="H10" s="77">
+        <f t="shared" si="2"/>
+        <v>0.10825221650443301</v>
+      </c>
+      <c r="I10" s="77">
         <f t="shared" si="1"/>
-        <v>4545</v>
-      </c>
-      <c r="J10" s="10">
-        <f t="shared" si="2"/>
-        <v>4545</v>
+        <v>9.5295005661089449E-2</v>
+      </c>
+      <c r="J10" s="81">
+        <f t="shared" si="1"/>
+        <v>9.5295005661089449E-2</v>
       </c>
       <c r="K10" s="15"/>
     </row>
@@ -5287,7 +5493,7 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -5303,8 +5509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" activeCellId="1" sqref="A3:A10 D3:G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5313,22 +5519,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19" thickBot="1">
-      <c r="A1" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="57" t="s">
+      <c r="A1" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="107"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="1:10" ht="19" thickBot="1">
       <c r="A2" s="27" t="s">
@@ -5347,7 +5553,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>19</v>
@@ -5359,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5388,12 +5594,12 @@
       <c r="H3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="46">
-        <f>E3-G3</f>
+      <c r="I3" s="78">
+        <f>(E3-$G3)/E3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="10">
-        <f>F3-G3</f>
+      <c r="J3" s="84">
+        <f>(F3-$G3)/F3</f>
         <v>0</v>
       </c>
     </row>
@@ -5423,13 +5629,13 @@
       <c r="H4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="1">
-        <f t="shared" ref="I4:I10" si="1">E4-G4</f>
-        <v>91</v>
-      </c>
-      <c r="J4" s="10">
-        <f t="shared" ref="J4:J19" si="2">F4-G4</f>
-        <v>91</v>
+      <c r="I4" s="79">
+        <f>(E4-$G4)/E4</f>
+        <v>2.8814793705075835E-3</v>
+      </c>
+      <c r="J4" s="85">
+        <f>(F4-$G4)/F4</f>
+        <v>2.8814793705075835E-3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5455,17 +5661,17 @@
       <c r="G5" s="16">
         <v>32731</v>
       </c>
-      <c r="H5" s="12">
-        <f>D5-G5</f>
-        <v>96</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H5" s="77">
+        <f>(D5-$G5)/D5</f>
+        <v>2.9244219697200477E-3</v>
+      </c>
+      <c r="I5" s="77">
+        <f t="shared" ref="I5:J10" si="1">(E5-$G5)/E5</f>
+        <v>2.9244219697200477E-3</v>
+      </c>
+      <c r="J5" s="81">
         <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="J5" s="10">
-        <f t="shared" si="2"/>
-        <v>96</v>
+        <v>2.9244219697200477E-3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5491,17 +5697,17 @@
       <c r="G6" s="16">
         <v>29879</v>
       </c>
-      <c r="H6" s="12">
-        <f t="shared" ref="H6:H10" si="3">D6-G6</f>
-        <v>395</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6" s="77">
+        <f t="shared" ref="H6:H10" si="2">(D6-$G6)/D6</f>
+        <v>1.3047499504525335E-2</v>
+      </c>
+      <c r="I6" s="77">
         <f t="shared" si="1"/>
-        <v>395</v>
-      </c>
-      <c r="J6" s="10">
-        <f t="shared" si="2"/>
-        <v>395</v>
+        <v>1.3047499504525335E-2</v>
+      </c>
+      <c r="J6" s="81">
+        <f t="shared" si="1"/>
+        <v>1.3047499504525335E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5526,17 +5732,17 @@
       <c r="G7" s="16">
         <v>48942</v>
       </c>
-      <c r="H7" s="12">
-        <f t="shared" si="3"/>
-        <v>4968</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="H7" s="77">
+        <f t="shared" si="2"/>
+        <v>9.2153589315525877E-2</v>
+      </c>
+      <c r="I7" s="77">
         <f t="shared" si="1"/>
-        <v>4968</v>
-      </c>
-      <c r="J7" s="10">
-        <f t="shared" si="2"/>
-        <v>4968</v>
+        <v>9.2153589315525877E-2</v>
+      </c>
+      <c r="J7" s="81">
+        <f t="shared" si="1"/>
+        <v>9.2153589315525877E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5561,17 +5767,17 @@
       <c r="G8" s="16">
         <v>46551</v>
       </c>
-      <c r="H8" s="12">
-        <f t="shared" si="3"/>
-        <v>5006</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8" s="77">
+        <f t="shared" si="2"/>
+        <v>9.7096417557266709E-2</v>
+      </c>
+      <c r="I8" s="77">
         <f t="shared" si="1"/>
-        <v>5006</v>
-      </c>
-      <c r="J8" s="10">
-        <f t="shared" si="2"/>
-        <v>4954</v>
+        <v>9.7096417557266709E-2</v>
+      </c>
+      <c r="J8" s="81">
+        <f t="shared" si="1"/>
+        <v>9.6184836423648196E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5596,17 +5802,17 @@
       <c r="G9" s="16">
         <v>45609</v>
       </c>
-      <c r="H9" s="12">
-        <f t="shared" si="3"/>
-        <v>11520</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="H9" s="77">
+        <f t="shared" si="2"/>
+        <v>0.20164889985821563</v>
+      </c>
+      <c r="I9" s="77">
         <f t="shared" si="1"/>
-        <v>11520</v>
-      </c>
-      <c r="J9" s="10">
-        <f t="shared" si="2"/>
-        <v>11520</v>
+        <v>0.20164889985821563</v>
+      </c>
+      <c r="J9" s="81">
+        <f t="shared" si="1"/>
+        <v>0.20164889985821563</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5631,17 +5837,17 @@
       <c r="G10" s="16">
         <v>43149</v>
       </c>
-      <c r="H10" s="12">
-        <f t="shared" si="3"/>
-        <v>5438</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="H10" s="77">
+        <f t="shared" si="2"/>
+        <v>0.11192294235083458</v>
+      </c>
+      <c r="I10" s="77">
         <f t="shared" si="1"/>
-        <v>3645</v>
-      </c>
-      <c r="J10" s="10">
-        <f t="shared" si="2"/>
-        <v>3645</v>
+        <v>7.7894601872034883E-2</v>
+      </c>
+      <c r="J10" s="81">
+        <f t="shared" si="1"/>
+        <v>7.7894601872034883E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5958,8 +6164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" activeCellId="1" sqref="A3:A10 D3:G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5968,22 +6174,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19" thickBot="1">
-      <c r="A1" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65" t="s">
+      <c r="A1" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="70"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="115"/>
+      <c r="J1" s="117"/>
     </row>
     <row r="2" spans="1:10" ht="19" thickBot="1">
       <c r="A2" s="28" t="s">
@@ -6002,7 +6208,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>19</v>
@@ -6014,7 +6220,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6024,7 +6230,7 @@
       <c r="B3" s="35">
         <v>4</v>
       </c>
-      <c r="C3" s="71">
+      <c r="C3" s="56">
         <v>2</v>
       </c>
       <c r="D3" s="36" t="s">
@@ -6042,11 +6248,12 @@
       <c r="H3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="80">
+        <f>(E3-$G3)/E3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="38">
-        <f>F3-G3</f>
+      <c r="J3" s="82">
+        <f>(F3-$G3)/F3</f>
         <v>0</v>
       </c>
     </row>
@@ -6057,7 +6264,7 @@
       <c r="B4" s="35">
         <v>4</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="56">
         <v>2</v>
       </c>
       <c r="D4" s="36" t="s">
@@ -6075,12 +6282,13 @@
       <c r="H4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="35">
-        <v>91</v>
-      </c>
-      <c r="J4" s="38">
-        <f t="shared" ref="J4:J10" si="0">F4-G4</f>
-        <v>91</v>
+      <c r="I4" s="80">
+        <f>(E4-$G4)/E4</f>
+        <v>2.8814793705075835E-3</v>
+      </c>
+      <c r="J4" s="82">
+        <f>(F4-$G4)/F4</f>
+        <v>2.8814793705075835E-3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6090,7 +6298,7 @@
       <c r="B5" s="35">
         <v>4</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="56">
         <v>2</v>
       </c>
       <c r="D5" s="36">
@@ -6105,15 +6313,17 @@
       <c r="G5" s="37">
         <v>32731</v>
       </c>
-      <c r="H5" s="35">
-        <v>96</v>
-      </c>
-      <c r="I5" s="35">
-        <v>96</v>
-      </c>
-      <c r="J5" s="38">
+      <c r="H5" s="76">
+        <f>(D5-$G5)/D5</f>
+        <v>2.9244219697200477E-3</v>
+      </c>
+      <c r="I5" s="76">
+        <f t="shared" ref="I5:J10" si="0">(E5-$G5)/E5</f>
+        <v>2.9244219697200477E-3</v>
+      </c>
+      <c r="J5" s="83">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>2.9244219697200477E-3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6123,7 +6333,7 @@
       <c r="B6" s="35">
         <v>4</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="56">
         <v>2</v>
       </c>
       <c r="D6" s="36">
@@ -6138,15 +6348,17 @@
       <c r="G6" s="37">
         <v>29879</v>
       </c>
-      <c r="H6" s="35">
-        <v>395</v>
-      </c>
-      <c r="I6" s="35">
-        <v>395</v>
-      </c>
-      <c r="J6" s="38">
+      <c r="H6" s="76">
+        <f t="shared" ref="H6:H10" si="1">(D6-$G6)/D6</f>
+        <v>1.3047499504525335E-2</v>
+      </c>
+      <c r="I6" s="76">
         <f t="shared" si="0"/>
-        <v>395</v>
+        <v>1.3047499504525335E-2</v>
+      </c>
+      <c r="J6" s="83">
+        <f t="shared" si="0"/>
+        <v>1.3047499504525335E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6156,7 +6368,7 @@
       <c r="B7" s="35">
         <v>5</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="57">
         <v>2</v>
       </c>
       <c r="D7" s="36">
@@ -6171,15 +6383,17 @@
       <c r="G7" s="37">
         <v>48942</v>
       </c>
-      <c r="H7" s="35">
-        <v>4968</v>
-      </c>
-      <c r="I7" s="35">
-        <v>4968</v>
-      </c>
-      <c r="J7" s="38">
+      <c r="H7" s="76">
+        <f t="shared" si="1"/>
+        <v>9.2153589315525877E-2</v>
+      </c>
+      <c r="I7" s="76">
         <f t="shared" si="0"/>
-        <v>4968</v>
+        <v>9.2153589315525877E-2</v>
+      </c>
+      <c r="J7" s="83">
+        <f t="shared" si="0"/>
+        <v>9.2153589315525877E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6189,7 +6403,7 @@
       <c r="B8" s="35">
         <v>5</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="57">
         <v>2</v>
       </c>
       <c r="D8" s="36">
@@ -6204,15 +6418,17 @@
       <c r="G8" s="37">
         <v>46551</v>
       </c>
-      <c r="H8" s="35">
-        <v>5006</v>
-      </c>
-      <c r="I8" s="35">
-        <v>4954</v>
-      </c>
-      <c r="J8" s="38">
+      <c r="H8" s="76">
+        <f t="shared" si="1"/>
+        <v>9.9471882073007944E-2</v>
+      </c>
+      <c r="I8" s="76">
         <f t="shared" si="0"/>
-        <v>4954</v>
+        <v>9.9471882073007944E-2</v>
+      </c>
+      <c r="J8" s="83">
+        <f t="shared" si="0"/>
+        <v>9.6184836423648196E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6222,7 +6438,7 @@
       <c r="B9" s="35">
         <v>5</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="57">
         <v>2</v>
       </c>
       <c r="D9" s="36">
@@ -6237,15 +6453,17 @@
       <c r="G9" s="37">
         <v>45609</v>
       </c>
-      <c r="H9" s="35">
-        <v>11520</v>
-      </c>
-      <c r="I9" s="35">
-        <v>11520</v>
-      </c>
-      <c r="J9" s="38">
+      <c r="H9" s="76">
+        <f t="shared" si="1"/>
+        <v>0.20164889985821563</v>
+      </c>
+      <c r="I9" s="76">
         <f t="shared" si="0"/>
-        <v>10450</v>
+        <v>0.20164889985821563</v>
+      </c>
+      <c r="J9" s="83">
+        <f t="shared" si="0"/>
+        <v>0.18641074582136677</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6255,7 +6473,7 @@
       <c r="B10" s="35">
         <v>5</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="57">
         <v>2</v>
       </c>
       <c r="D10" s="36">
@@ -6270,15 +6488,17 @@
       <c r="G10" s="37">
         <v>43149</v>
       </c>
-      <c r="H10" s="35">
-        <v>5238</v>
-      </c>
-      <c r="I10" s="35">
-        <v>4545</v>
-      </c>
-      <c r="J10" s="38">
+      <c r="H10" s="76">
+        <f t="shared" si="1"/>
+        <v>0.10825221650443301</v>
+      </c>
+      <c r="I10" s="76">
         <f t="shared" si="0"/>
-        <v>5238</v>
+        <v>0.10825221650443301</v>
+      </c>
+      <c r="J10" s="83">
+        <f t="shared" si="0"/>
+        <v>0.10825221650443301</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6288,7 +6508,7 @@
       <c r="B11" s="35">
         <v>6</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="56">
         <v>3</v>
       </c>
       <c r="D11" s="36" t="s">
@@ -6320,7 +6540,7 @@
       <c r="B12" s="35">
         <v>7</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="56">
         <v>3</v>
       </c>
       <c r="D12" s="36" t="s">
@@ -6352,7 +6572,7 @@
       <c r="B13" s="35">
         <v>7</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="56">
         <v>3</v>
       </c>
       <c r="D13" s="36" t="s">
@@ -6384,7 +6604,7 @@
       <c r="B14" s="35">
         <v>7</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="56">
         <v>3</v>
       </c>
       <c r="D14" s="36" t="s">
@@ -6416,7 +6636,7 @@
       <c r="B15" s="35">
         <v>7</v>
       </c>
-      <c r="C15" s="71">
+      <c r="C15" s="56">
         <v>3</v>
       </c>
       <c r="D15" s="36" t="s">
@@ -6448,7 +6668,7 @@
       <c r="B16" s="35">
         <v>8</v>
       </c>
-      <c r="C16" s="71">
+      <c r="C16" s="56">
         <v>4</v>
       </c>
       <c r="D16" s="36" t="s">
@@ -6480,7 +6700,7 @@
       <c r="B17" s="35">
         <v>8</v>
       </c>
-      <c r="C17" s="71">
+      <c r="C17" s="56">
         <v>4</v>
       </c>
       <c r="D17" s="36" t="s">
@@ -6512,7 +6732,7 @@
       <c r="B18" s="35">
         <v>8</v>
       </c>
-      <c r="C18" s="71">
+      <c r="C18" s="56">
         <v>4</v>
       </c>
       <c r="D18" s="36" t="s">
@@ -6590,8 +6810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" activeCellId="1" sqref="A3:A10 D3:G10"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6600,22 +6820,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19" thickBot="1">
-      <c r="A1" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="57" t="s">
+      <c r="A1" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="107"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="1:10" ht="19" thickBot="1">
       <c r="A2" s="27" t="s">
@@ -6634,7 +6854,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>19</v>
@@ -6646,7 +6866,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6675,12 +6895,12 @@
       <c r="H3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="46">
-        <f>E3-G3</f>
+      <c r="I3" s="77">
+        <f t="shared" ref="I3:J10" si="0">(E3-$G3)/E3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="10">
-        <f>F3-G3</f>
+      <c r="J3" s="81">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6692,7 +6912,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="8">
-        <f t="shared" ref="C4:C19" si="0">B4/2</f>
+        <f t="shared" ref="C4:C19" si="1">B4/2</f>
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -6710,13 +6930,13 @@
       <c r="H4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="1">
-        <f t="shared" ref="I4:I10" si="1">E4-G4</f>
-        <v>91</v>
-      </c>
-      <c r="J4" s="10">
-        <f t="shared" ref="J4:J19" si="2">F4-G4</f>
-        <v>91</v>
+      <c r="I4" s="77">
+        <f t="shared" si="0"/>
+        <v>2.8814793705075835E-3</v>
+      </c>
+      <c r="J4" s="81">
+        <f t="shared" si="0"/>
+        <v>2.8814793705075835E-3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6727,7 +6947,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D5" s="6">
@@ -6742,17 +6962,17 @@
       <c r="G5" s="16">
         <v>32731</v>
       </c>
-      <c r="H5" s="12">
-        <f>D5-G5</f>
-        <v>96</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="J5" s="10">
-        <f t="shared" si="2"/>
-        <v>96</v>
+      <c r="H5" s="77">
+        <f>(D5-$G5)/D5</f>
+        <v>2.9244219697200477E-3</v>
+      </c>
+      <c r="I5" s="77">
+        <f t="shared" si="0"/>
+        <v>2.9244219697200477E-3</v>
+      </c>
+      <c r="J5" s="81">
+        <f t="shared" si="0"/>
+        <v>2.9244219697200477E-3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6763,7 +6983,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D6" s="6">
@@ -6778,17 +6998,17 @@
       <c r="G6" s="16">
         <v>29879</v>
       </c>
-      <c r="H6" s="12">
-        <f t="shared" ref="H6:H10" si="3">D6-G6</f>
-        <v>395</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="1"/>
-        <v>395</v>
-      </c>
-      <c r="J6" s="10">
-        <f t="shared" si="2"/>
-        <v>395</v>
+      <c r="H6" s="77">
+        <f t="shared" ref="H6:H10" si="2">(D6-$G6)/D6</f>
+        <v>1.3047499504525335E-2</v>
+      </c>
+      <c r="I6" s="77">
+        <f t="shared" si="0"/>
+        <v>1.3047499504525335E-2</v>
+      </c>
+      <c r="J6" s="81">
+        <f t="shared" si="0"/>
+        <v>1.3047499504525335E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6813,17 +7033,17 @@
       <c r="G7" s="16">
         <v>48942</v>
       </c>
-      <c r="H7" s="12">
-        <f t="shared" si="3"/>
-        <v>4968</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="1"/>
-        <v>4968</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="H7" s="77">
         <f t="shared" si="2"/>
-        <v>4968</v>
+        <v>9.2153589315525877E-2</v>
+      </c>
+      <c r="I7" s="77">
+        <f t="shared" si="0"/>
+        <v>9.2153589315525877E-2</v>
+      </c>
+      <c r="J7" s="81">
+        <f t="shared" si="0"/>
+        <v>9.2153589315525877E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6848,17 +7068,17 @@
       <c r="G8" s="16">
         <v>46551</v>
       </c>
-      <c r="H8" s="12">
-        <f t="shared" si="3"/>
-        <v>4939</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="1"/>
-        <v>4939</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="H8" s="77">
         <f t="shared" si="2"/>
-        <v>4939</v>
+        <v>9.592153816275005E-2</v>
+      </c>
+      <c r="I8" s="77">
+        <f t="shared" si="0"/>
+        <v>9.592153816275005E-2</v>
+      </c>
+      <c r="J8" s="81">
+        <f t="shared" si="0"/>
+        <v>9.592153816275005E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6883,17 +7103,17 @@
       <c r="G9" s="16">
         <v>45609</v>
       </c>
-      <c r="H9" s="12">
-        <f t="shared" si="3"/>
-        <v>11520</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="1"/>
-        <v>11520</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="H9" s="77">
         <f t="shared" si="2"/>
-        <v>11520</v>
+        <v>0.20164889985821563</v>
+      </c>
+      <c r="I9" s="77">
+        <f t="shared" si="0"/>
+        <v>0.20164889985821563</v>
+      </c>
+      <c r="J9" s="81">
+        <f t="shared" si="0"/>
+        <v>0.20164889985821563</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6918,17 +7138,17 @@
       <c r="G10" s="16">
         <v>43149</v>
       </c>
-      <c r="H10" s="12">
-        <f t="shared" si="3"/>
-        <v>5438</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="1"/>
-        <v>5391</v>
-      </c>
-      <c r="J10" s="10">
+      <c r="H10" s="77">
         <f t="shared" si="2"/>
-        <v>4626</v>
+        <v>0.11192294235083458</v>
+      </c>
+      <c r="I10" s="77">
+        <f t="shared" si="0"/>
+        <v>0.11106304079110012</v>
+      </c>
+      <c r="J10" s="81">
+        <f t="shared" si="0"/>
+        <v>9.6828885400313966E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6939,7 +7159,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -6957,7 +7177,7 @@
       <c r="H11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -6989,7 +7209,7 @@
       <c r="H12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="10" t="s">
@@ -7021,7 +7241,7 @@
       <c r="H13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J13" s="10" t="s">
@@ -7053,7 +7273,7 @@
       <c r="H14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="10" t="s">
@@ -7085,7 +7305,7 @@
       <c r="H15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J15" s="10" t="s">
@@ -7100,7 +7320,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -7118,7 +7338,7 @@
       <c r="H16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="10" t="s">
@@ -7133,7 +7353,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -7151,7 +7371,7 @@
       <c r="H17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J17" s="10" t="s">
@@ -7166,7 +7386,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -7184,7 +7404,7 @@
       <c r="H18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="10" t="s">
@@ -7199,7 +7419,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -7217,7 +7437,7 @@
       <c r="H19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="11" t="s">
@@ -7243,10 +7463,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D20" sqref="D20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7255,17 +7475,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="111" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="70"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="2" spans="1:8" ht="19" thickBot="1">
       <c r="A2" s="28" t="s">
@@ -7274,22 +7494,22 @@
       <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="54">
+      <c r="D2" s="92">
         <v>1</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="93">
         <v>4</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="93">
         <v>7</v>
       </c>
-      <c r="G2" s="55">
+      <c r="G2" s="94">
         <v>9</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7300,13 +7520,13 @@
       <c r="B3" s="35">
         <v>4</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="51">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="95" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -7315,7 +7535,7 @@
       <c r="G3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="48">
         <v>34311</v>
       </c>
     </row>
@@ -7326,13 +7546,13 @@
       <c r="B4" s="35">
         <v>4</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="51">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="95" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -7341,7 +7561,7 @@
       <c r="G4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="48">
         <v>31490</v>
       </c>
     </row>
@@ -7352,13 +7572,13 @@
       <c r="B5" s="35">
         <v>4</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="51">
         <v>2</v>
       </c>
       <c r="D5" s="6">
         <v>32827</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="95">
         <v>32827</v>
       </c>
       <c r="F5" s="1">
@@ -7367,7 +7587,7 @@
       <c r="G5" s="10">
         <v>32827</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="48">
         <v>32731</v>
       </c>
     </row>
@@ -7378,22 +7598,22 @@
       <c r="B6" s="35">
         <v>4</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="51">
         <v>2</v>
       </c>
       <c r="D6" s="6">
         <v>30274</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="95">
         <v>30274</v>
       </c>
       <c r="F6" s="1">
         <v>30274</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="58">
         <v>30274</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="48">
         <v>29879</v>
       </c>
     </row>
@@ -7404,13 +7624,13 @@
       <c r="B7" s="35">
         <v>5</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="52">
         <v>2</v>
       </c>
       <c r="D7" s="45">
         <v>53910</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="95">
         <v>53910</v>
       </c>
       <c r="F7" s="1">
@@ -7419,7 +7639,7 @@
       <c r="G7" s="10">
         <v>53910</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="48">
         <v>48942</v>
       </c>
     </row>
@@ -7430,22 +7650,22 @@
       <c r="B8" s="35">
         <v>5</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="52">
         <v>2</v>
       </c>
       <c r="D8" s="6">
         <v>51557</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="95">
         <v>51557</v>
       </c>
       <c r="F8" s="46">
         <v>51693</v>
       </c>
-      <c r="G8" s="73">
+      <c r="G8" s="58">
         <v>51490</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="48">
         <v>46551</v>
       </c>
     </row>
@@ -7456,13 +7676,13 @@
       <c r="B9" s="35">
         <v>5</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="52">
         <v>2</v>
       </c>
       <c r="D9" s="45">
         <v>57129</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="95">
         <v>57129</v>
       </c>
       <c r="F9" s="1">
@@ -7471,7 +7691,7 @@
       <c r="G9" s="10">
         <v>57129</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="48">
         <v>45609</v>
       </c>
     </row>
@@ -7482,22 +7702,22 @@
       <c r="B10" s="35">
         <v>5</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="52">
         <v>2</v>
       </c>
       <c r="D10" s="6">
         <v>48387</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="95">
         <v>48587</v>
       </c>
       <c r="F10" s="1">
         <v>48387</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="58">
         <v>48587</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="48">
         <v>43149</v>
       </c>
     </row>
@@ -7508,13 +7728,13 @@
       <c r="B11" s="35">
         <v>6</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="51">
         <v>3</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="95" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -7523,7 +7743,7 @@
       <c r="G11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="48" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7534,13 +7754,13 @@
       <c r="B12" s="35">
         <v>7</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="51">
         <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="95" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -7549,7 +7769,7 @@
       <c r="G12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="48">
         <v>164440</v>
       </c>
     </row>
@@ -7560,13 +7780,13 @@
       <c r="B13" s="35">
         <v>7</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="51">
         <v>3</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="95" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -7575,7 +7795,7 @@
       <c r="G13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="48">
         <v>158760</v>
       </c>
     </row>
@@ -7586,13 +7806,13 @@
       <c r="B14" s="35">
         <v>7</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="51">
         <v>3</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="95" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -7601,7 +7821,7 @@
       <c r="G14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="48">
         <v>157884</v>
       </c>
     </row>
@@ -7612,13 +7832,13 @@
       <c r="B15" s="35">
         <v>7</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="51">
         <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="95" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -7627,7 +7847,7 @@
       <c r="G15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="48">
         <v>154913</v>
       </c>
     </row>
@@ -7638,13 +7858,13 @@
       <c r="B16" s="35">
         <v>8</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="51">
         <v>4</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="95" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -7653,7 +7873,7 @@
       <c r="G16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="48">
         <v>165765</v>
       </c>
     </row>
@@ -7664,13 +7884,13 @@
       <c r="B17" s="35">
         <v>8</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="51">
         <v>4</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="95" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -7679,7 +7899,7 @@
       <c r="G17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="48">
         <v>178511</v>
       </c>
     </row>
@@ -7690,13 +7910,13 @@
       <c r="B18" s="35">
         <v>8</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="51">
         <v>4</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="95" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -7705,7 +7925,7 @@
       <c r="G18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="48">
         <v>180204</v>
       </c>
     </row>
@@ -7716,13 +7936,13 @@
       <c r="B19" s="40">
         <v>8</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="55">
         <v>4</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="96" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -7731,14 +7951,355 @@
       <c r="G19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="49">
         <v>180483</v>
       </c>
     </row>
+    <row r="20" spans="1:8" ht="19" thickBot="1">
+      <c r="D20" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="122"/>
+    </row>
+    <row r="21" spans="1:8" ht="19" thickBot="1">
+      <c r="B21" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="86">
+        <v>8</v>
+      </c>
+      <c r="D21" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="87"/>
+      <c r="C22" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="87"/>
+      <c r="C23" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="105">
+        <f>(D5-$H5)/D5</f>
+        <v>2.9244219697200477E-3</v>
+      </c>
+      <c r="E23" s="79">
+        <f t="shared" ref="E23:G23" si="0">(E5-$H5)/E5</f>
+        <v>2.9244219697200477E-3</v>
+      </c>
+      <c r="F23" s="79">
+        <f t="shared" si="0"/>
+        <v>2.9244219697200477E-3</v>
+      </c>
+      <c r="G23" s="81">
+        <f t="shared" si="0"/>
+        <v>2.9244219697200477E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="87"/>
+      <c r="C24" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="105">
+        <f t="shared" ref="D24:G28" si="1">(D6-$H6)/D6</f>
+        <v>1.3047499504525335E-2</v>
+      </c>
+      <c r="E24" s="79">
+        <f t="shared" si="1"/>
+        <v>1.3047499504525335E-2</v>
+      </c>
+      <c r="F24" s="79">
+        <f t="shared" si="1"/>
+        <v>1.3047499504525335E-2</v>
+      </c>
+      <c r="G24" s="81">
+        <f t="shared" si="1"/>
+        <v>1.3047499504525335E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="87"/>
+      <c r="C25" s="34">
+        <v>10</v>
+      </c>
+      <c r="D25" s="105">
+        <f t="shared" si="1"/>
+        <v>9.2153589315525877E-2</v>
+      </c>
+      <c r="E25" s="79">
+        <f t="shared" si="1"/>
+        <v>9.2153589315525877E-2</v>
+      </c>
+      <c r="F25" s="79">
+        <f t="shared" si="1"/>
+        <v>9.2153589315525877E-2</v>
+      </c>
+      <c r="G25" s="81">
+        <f t="shared" si="1"/>
+        <v>9.2153589315525877E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="87"/>
+      <c r="C26" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="105">
+        <f t="shared" si="1"/>
+        <v>9.7096417557266709E-2</v>
+      </c>
+      <c r="E26" s="79">
+        <f t="shared" si="1"/>
+        <v>9.7096417557266709E-2</v>
+      </c>
+      <c r="F26" s="79">
+        <f t="shared" si="1"/>
+        <v>9.9471882073007944E-2</v>
+      </c>
+      <c r="G26" s="81">
+        <f t="shared" si="1"/>
+        <v>9.592153816275005E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="87"/>
+      <c r="C27" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="105">
+        <f t="shared" si="1"/>
+        <v>0.20164889985821563</v>
+      </c>
+      <c r="E27" s="79">
+        <f t="shared" si="1"/>
+        <v>0.20164889985821563</v>
+      </c>
+      <c r="F27" s="79">
+        <f t="shared" si="1"/>
+        <v>0.20164889985821563</v>
+      </c>
+      <c r="G27" s="81">
+        <f t="shared" si="1"/>
+        <v>0.20164889985821563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="87"/>
+      <c r="C28" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="105">
+        <f t="shared" si="1"/>
+        <v>0.10825221650443301</v>
+      </c>
+      <c r="E28" s="79">
+        <f t="shared" si="1"/>
+        <v>0.11192294235083458</v>
+      </c>
+      <c r="F28" s="79">
+        <f t="shared" si="1"/>
+        <v>0.10825221650443301</v>
+      </c>
+      <c r="G28" s="81">
+        <f t="shared" si="1"/>
+        <v>0.11192294235083458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="87"/>
+      <c r="C29" s="34">
+        <v>12</v>
+      </c>
+      <c r="D29" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="87"/>
+      <c r="C30" s="34">
+        <v>14</v>
+      </c>
+      <c r="D30" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="87"/>
+      <c r="C31" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="87"/>
+      <c r="C32" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="87"/>
+      <c r="C33" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="87"/>
+      <c r="C34" s="34">
+        <v>16</v>
+      </c>
+      <c r="D34" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="87"/>
+      <c r="C35" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="87"/>
+      <c r="C36" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="16" thickBot="1">
+      <c r="B37" s="88"/>
+      <c r="C37" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="104" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D20:G20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7753,10 +8314,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D3" activeCellId="1" sqref="A3:A10 D3:H10"/>
+      <selection activeCell="D20" sqref="D20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7765,17 +8326,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" thickBot="1">
-      <c r="A1" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="70"/>
+      <c r="A1" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="2" spans="1:8" ht="19" thickBot="1">
       <c r="A2" s="28" t="s">
@@ -7784,22 +8345,22 @@
       <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="54">
+      <c r="D2" s="53">
         <v>1</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="50">
         <v>4</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="50">
         <v>7</v>
       </c>
-      <c r="G2" s="55">
+      <c r="G2" s="54">
         <v>9</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7810,7 +8371,7 @@
       <c r="B3" s="35">
         <v>4</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="51">
         <v>2</v>
       </c>
       <c r="D3" s="1">
@@ -7825,7 +8386,7 @@
       <c r="G3" s="1">
         <v>34311</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="48">
         <v>34311</v>
       </c>
     </row>
@@ -7836,7 +8397,7 @@
       <c r="B4" s="35">
         <v>4</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="51">
         <v>2</v>
       </c>
       <c r="D4" s="1">
@@ -7851,7 +8412,7 @@
       <c r="G4" s="1">
         <v>31581</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="48">
         <v>31490</v>
       </c>
     </row>
@@ -7862,7 +8423,7 @@
       <c r="B5" s="35">
         <v>4</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="51">
         <v>2</v>
       </c>
       <c r="D5" s="1">
@@ -7877,7 +8438,7 @@
       <c r="G5" s="1">
         <v>32827</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="48">
         <v>32731</v>
       </c>
     </row>
@@ -7888,7 +8449,7 @@
       <c r="B6" s="35">
         <v>4</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="51">
         <v>2</v>
       </c>
       <c r="D6" s="1">
@@ -7903,7 +8464,7 @@
       <c r="G6" s="1">
         <v>30274</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="48">
         <v>29879</v>
       </c>
     </row>
@@ -7914,7 +8475,7 @@
       <c r="B7" s="35">
         <v>5</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="52">
         <v>2</v>
       </c>
       <c r="D7" s="46">
@@ -7929,7 +8490,7 @@
       <c r="G7" s="1">
         <v>53910</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="48">
         <v>48942</v>
       </c>
     </row>
@@ -7940,7 +8501,7 @@
       <c r="B8" s="35">
         <v>5</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="52">
         <v>2</v>
       </c>
       <c r="D8" s="1">
@@ -7955,7 +8516,7 @@
       <c r="G8" s="1">
         <v>51490</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="48">
         <v>46551</v>
       </c>
     </row>
@@ -7966,7 +8527,7 @@
       <c r="B9" s="35">
         <v>5</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="52">
         <v>2</v>
       </c>
       <c r="D9" s="46">
@@ -7981,7 +8542,7 @@
       <c r="G9" s="1">
         <v>57129</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="48">
         <v>45609</v>
       </c>
     </row>
@@ -7992,7 +8553,7 @@
       <c r="B10" s="35">
         <v>5</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="52">
         <v>2</v>
       </c>
       <c r="D10" s="1">
@@ -8007,7 +8568,7 @@
       <c r="G10" s="1">
         <v>48540</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="48">
         <v>43149</v>
       </c>
     </row>
@@ -8018,7 +8579,7 @@
       <c r="B11" s="35">
         <v>6</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="51">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -8033,7 +8594,7 @@
       <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="48" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8044,7 +8605,7 @@
       <c r="B12" s="35">
         <v>7</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="51">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -8059,7 +8620,7 @@
       <c r="G12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="48">
         <v>164440</v>
       </c>
     </row>
@@ -8070,7 +8631,7 @@
       <c r="B13" s="35">
         <v>7</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="51">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -8085,7 +8646,7 @@
       <c r="G13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="48">
         <v>158760</v>
       </c>
     </row>
@@ -8096,7 +8657,7 @@
       <c r="B14" s="35">
         <v>7</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="51">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -8111,7 +8672,7 @@
       <c r="G14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="48">
         <v>157884</v>
       </c>
     </row>
@@ -8122,7 +8683,7 @@
       <c r="B15" s="35">
         <v>7</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="51">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -8137,7 +8698,7 @@
       <c r="G15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="48">
         <v>154913</v>
       </c>
     </row>
@@ -8148,7 +8709,7 @@
       <c r="B16" s="35">
         <v>8</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="51">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -8163,7 +8724,7 @@
       <c r="G16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="48">
         <v>165765</v>
       </c>
     </row>
@@ -8174,7 +8735,7 @@
       <c r="B17" s="35">
         <v>8</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="51">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -8189,7 +8750,7 @@
       <c r="G17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="48">
         <v>178511</v>
       </c>
     </row>
@@ -8200,7 +8761,7 @@
       <c r="B18" s="35">
         <v>8</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="51">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -8215,7 +8776,7 @@
       <c r="G18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="48">
         <v>180204</v>
       </c>
     </row>
@@ -8226,7 +8787,7 @@
       <c r="B19" s="40">
         <v>8</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="55">
         <v>4</v>
       </c>
       <c r="D19" s="19" t="s">
@@ -8241,17 +8802,355 @@
       <c r="G19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="49">
         <v>180483</v>
       </c>
     </row>
+    <row r="20" spans="1:8" ht="19" thickBot="1">
+      <c r="D20" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="122"/>
+    </row>
+    <row r="21" spans="1:8" ht="19" thickBot="1">
+      <c r="B21" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="86">
+        <v>8</v>
+      </c>
+      <c r="D21" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="89" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="22" spans="1:8">
-      <c r="F22" s="15"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="87"/>
+      <c r="C23" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="105">
+        <f>(D5-$H5)/D5</f>
+        <v>2.9244219697200477E-3</v>
+      </c>
+      <c r="E23" s="79">
+        <f t="shared" ref="E23:G23" si="0">(E5-$H5)/E5</f>
+        <v>2.9244219697200477E-3</v>
+      </c>
+      <c r="F23" s="79">
+        <f t="shared" si="0"/>
+        <v>2.9244219697200477E-3</v>
+      </c>
+      <c r="G23" s="81">
+        <f t="shared" si="0"/>
+        <v>2.9244219697200477E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="87"/>
+      <c r="C24" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="105">
+        <f t="shared" ref="D24:G28" si="1">(D6-$H6)/D6</f>
+        <v>1.3047499504525335E-2</v>
+      </c>
+      <c r="E24" s="79">
+        <f t="shared" si="1"/>
+        <v>1.3047499504525335E-2</v>
+      </c>
+      <c r="F24" s="79">
+        <f t="shared" si="1"/>
+        <v>1.3047499504525335E-2</v>
+      </c>
+      <c r="G24" s="81">
+        <f t="shared" si="1"/>
+        <v>1.3047499504525335E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="87"/>
+      <c r="C25" s="34">
+        <v>10</v>
+      </c>
+      <c r="D25" s="105">
+        <f t="shared" si="1"/>
+        <v>9.2153589315525877E-2</v>
+      </c>
+      <c r="E25" s="79">
+        <f t="shared" si="1"/>
+        <v>9.2153589315525877E-2</v>
+      </c>
+      <c r="F25" s="79">
+        <f t="shared" si="1"/>
+        <v>9.2153589315525877E-2</v>
+      </c>
+      <c r="G25" s="81">
+        <f t="shared" si="1"/>
+        <v>9.2153589315525877E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="87"/>
+      <c r="C26" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="105">
+        <f t="shared" si="1"/>
+        <v>9.6184836423648196E-2</v>
+      </c>
+      <c r="E26" s="79">
+        <f t="shared" si="1"/>
+        <v>9.7096417557266709E-2</v>
+      </c>
+      <c r="F26" s="79">
+        <f t="shared" si="1"/>
+        <v>9.9471882073007944E-2</v>
+      </c>
+      <c r="G26" s="81">
+        <f t="shared" si="1"/>
+        <v>9.592153816275005E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="87"/>
+      <c r="C27" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="105">
+        <f t="shared" si="1"/>
+        <v>0.20164889985821563</v>
+      </c>
+      <c r="E27" s="79">
+        <f t="shared" si="1"/>
+        <v>0.20164889985821563</v>
+      </c>
+      <c r="F27" s="79">
+        <f t="shared" si="1"/>
+        <v>0.20164889985821563</v>
+      </c>
+      <c r="G27" s="81">
+        <f t="shared" si="1"/>
+        <v>0.20164889985821563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="87"/>
+      <c r="C28" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="105">
+        <f t="shared" si="1"/>
+        <v>9.5295005661089449E-2</v>
+      </c>
+      <c r="E28" s="79">
+        <f t="shared" si="1"/>
+        <v>7.7894601872034883E-2</v>
+      </c>
+      <c r="F28" s="79">
+        <f t="shared" si="1"/>
+        <v>0.10825221650443301</v>
+      </c>
+      <c r="G28" s="81">
+        <f t="shared" si="1"/>
+        <v>0.11106304079110012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="87"/>
+      <c r="C29" s="34">
+        <v>12</v>
+      </c>
+      <c r="D29" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="87"/>
+      <c r="C30" s="34">
+        <v>14</v>
+      </c>
+      <c r="D30" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="87"/>
+      <c r="C31" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="87"/>
+      <c r="C32" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="87"/>
+      <c r="C33" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="87"/>
+      <c r="C34" s="34">
+        <v>16</v>
+      </c>
+      <c r="D34" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="87"/>
+      <c r="C35" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="87"/>
+      <c r="C36" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="16" thickBot="1">
+      <c r="B37" s="88"/>
+      <c r="C37" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="104" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D20:G20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -8265,10 +9164,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" activeCellId="1" sqref="A3:A10 D3:H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8277,17 +9176,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" thickBot="1">
-      <c r="A1" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69" t="s">
+      <c r="A1" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="70"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="2" spans="1:8" ht="19" thickBot="1">
       <c r="A2" s="28" t="s">
@@ -8296,22 +9195,22 @@
       <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="54">
+      <c r="D2" s="53">
         <v>1</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="50">
         <v>4</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="50">
         <v>7</v>
       </c>
-      <c r="G2" s="55">
+      <c r="G2" s="54">
         <v>9</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8322,7 +9221,7 @@
       <c r="B3" s="35">
         <v>4</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="51">
         <v>2</v>
       </c>
       <c r="D3" s="1">
@@ -8337,7 +9236,7 @@
       <c r="G3" s="1">
         <v>34311</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="48">
         <v>34311</v>
       </c>
     </row>
@@ -8348,7 +9247,7 @@
       <c r="B4" s="35">
         <v>4</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="51">
         <v>2</v>
       </c>
       <c r="D4" s="1">
@@ -8363,7 +9262,7 @@
       <c r="G4" s="1">
         <v>31581</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="48">
         <v>31490</v>
       </c>
     </row>
@@ -8374,7 +9273,7 @@
       <c r="B5" s="35">
         <v>4</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="51">
         <v>2</v>
       </c>
       <c r="D5" s="1">
@@ -8389,7 +9288,7 @@
       <c r="G5" s="1">
         <v>32827</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="48">
         <v>32731</v>
       </c>
     </row>
@@ -8400,7 +9299,7 @@
       <c r="B6" s="35">
         <v>4</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="51">
         <v>2</v>
       </c>
       <c r="D6" s="1">
@@ -8415,7 +9314,7 @@
       <c r="G6" s="1">
         <v>30274</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="48">
         <v>29879</v>
       </c>
     </row>
@@ -8426,7 +9325,7 @@
       <c r="B7" s="35">
         <v>5</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="52">
         <v>2</v>
       </c>
       <c r="D7" s="46">
@@ -8441,7 +9340,7 @@
       <c r="G7" s="1">
         <v>53910</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="48">
         <v>48942</v>
       </c>
     </row>
@@ -8452,7 +9351,7 @@
       <c r="B8" s="35">
         <v>5</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="52">
         <v>2</v>
       </c>
       <c r="D8" s="46">
@@ -8467,7 +9366,7 @@
       <c r="G8" s="1">
         <v>51490</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="48">
         <v>46551</v>
       </c>
     </row>
@@ -8478,7 +9377,7 @@
       <c r="B9" s="35">
         <v>5</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="52">
         <v>2</v>
       </c>
       <c r="D9" s="46">
@@ -8493,7 +9392,7 @@
       <c r="G9" s="1">
         <v>57129</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="48">
         <v>45609</v>
       </c>
     </row>
@@ -8504,7 +9403,7 @@
       <c r="B10" s="35">
         <v>5</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="52">
         <v>2</v>
       </c>
       <c r="D10" s="1">
@@ -8519,7 +9418,7 @@
       <c r="G10" s="1">
         <v>47775</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="48">
         <v>43149</v>
       </c>
     </row>
@@ -8530,7 +9429,7 @@
       <c r="B11" s="35">
         <v>6</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="51">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -8545,7 +9444,7 @@
       <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="48" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8556,7 +9455,7 @@
       <c r="B12" s="35">
         <v>7</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="51">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -8571,7 +9470,7 @@
       <c r="G12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="48">
         <v>164440</v>
       </c>
     </row>
@@ -8582,7 +9481,7 @@
       <c r="B13" s="35">
         <v>7</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="51">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -8597,7 +9496,7 @@
       <c r="G13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="48">
         <v>158760</v>
       </c>
     </row>
@@ -8608,7 +9507,7 @@
       <c r="B14" s="35">
         <v>7</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="51">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -8623,7 +9522,7 @@
       <c r="G14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="48">
         <v>157884</v>
       </c>
     </row>
@@ -8634,7 +9533,7 @@
       <c r="B15" s="35">
         <v>7</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="51">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -8649,7 +9548,7 @@
       <c r="G15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="48">
         <v>154913</v>
       </c>
     </row>
@@ -8660,7 +9559,7 @@
       <c r="B16" s="35">
         <v>8</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="51">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -8675,7 +9574,7 @@
       <c r="G16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="48">
         <v>165765</v>
       </c>
     </row>
@@ -8686,7 +9585,7 @@
       <c r="B17" s="35">
         <v>8</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="51">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -8701,7 +9600,7 @@
       <c r="G17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="48">
         <v>178511</v>
       </c>
     </row>
@@ -8712,7 +9611,7 @@
       <c r="B18" s="35">
         <v>8</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="51">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -8727,7 +9626,7 @@
       <c r="G18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="48">
         <v>180204</v>
       </c>
     </row>
@@ -8738,7 +9637,7 @@
       <c r="B19" s="40">
         <v>8</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="55">
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -8753,14 +9652,355 @@
       <c r="G19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="49">
         <v>180483</v>
       </c>
     </row>
+    <row r="20" spans="1:8" ht="19" thickBot="1">
+      <c r="D20" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="122"/>
+    </row>
+    <row r="21" spans="1:8" ht="19" thickBot="1">
+      <c r="B21" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="86">
+        <v>8</v>
+      </c>
+      <c r="D21" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="87"/>
+      <c r="C22" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="87"/>
+      <c r="C23" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="105">
+        <f>(D5-$H5)/D5</f>
+        <v>2.9244219697200477E-3</v>
+      </c>
+      <c r="E23" s="79">
+        <f t="shared" ref="E23:G23" si="0">(E5-$H5)/E5</f>
+        <v>2.9244219697200477E-3</v>
+      </c>
+      <c r="F23" s="79">
+        <f t="shared" si="0"/>
+        <v>2.9244219697200477E-3</v>
+      </c>
+      <c r="G23" s="81">
+        <f t="shared" si="0"/>
+        <v>2.9244219697200477E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="87"/>
+      <c r="C24" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="105">
+        <f t="shared" ref="D24:G28" si="1">(D6-$H6)/D6</f>
+        <v>1.3047499504525335E-2</v>
+      </c>
+      <c r="E24" s="79">
+        <f t="shared" si="1"/>
+        <v>1.3047499504525335E-2</v>
+      </c>
+      <c r="F24" s="79">
+        <f t="shared" si="1"/>
+        <v>1.3047499504525335E-2</v>
+      </c>
+      <c r="G24" s="81">
+        <f t="shared" si="1"/>
+        <v>1.3047499504525335E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="87"/>
+      <c r="C25" s="34">
+        <v>10</v>
+      </c>
+      <c r="D25" s="105">
+        <f t="shared" si="1"/>
+        <v>9.2153589315525877E-2</v>
+      </c>
+      <c r="E25" s="79">
+        <f t="shared" si="1"/>
+        <v>9.2153589315525877E-2</v>
+      </c>
+      <c r="F25" s="79">
+        <f t="shared" si="1"/>
+        <v>9.2153589315525877E-2</v>
+      </c>
+      <c r="G25" s="81">
+        <f t="shared" si="1"/>
+        <v>9.2153589315525877E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="87"/>
+      <c r="C26" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="105">
+        <f t="shared" si="1"/>
+        <v>9.6184836423648196E-2</v>
+      </c>
+      <c r="E26" s="79">
+        <f t="shared" si="1"/>
+        <v>9.6184836423648196E-2</v>
+      </c>
+      <c r="F26" s="79">
+        <f t="shared" si="1"/>
+        <v>9.6184836423648196E-2</v>
+      </c>
+      <c r="G26" s="81">
+        <f t="shared" si="1"/>
+        <v>9.592153816275005E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="87"/>
+      <c r="C27" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="105">
+        <f t="shared" si="1"/>
+        <v>0.20164889985821563</v>
+      </c>
+      <c r="E27" s="79">
+        <f t="shared" si="1"/>
+        <v>0.20164889985821563</v>
+      </c>
+      <c r="F27" s="79">
+        <f t="shared" si="1"/>
+        <v>0.18641074582136677</v>
+      </c>
+      <c r="G27" s="81">
+        <f t="shared" si="1"/>
+        <v>0.20164889985821563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="87"/>
+      <c r="C28" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="105">
+        <f t="shared" si="1"/>
+        <v>9.5295005661089449E-2</v>
+      </c>
+      <c r="E28" s="79">
+        <f t="shared" si="1"/>
+        <v>7.7894601872034883E-2</v>
+      </c>
+      <c r="F28" s="79">
+        <f t="shared" si="1"/>
+        <v>0.10825221650443301</v>
+      </c>
+      <c r="G28" s="81">
+        <f t="shared" si="1"/>
+        <v>9.6828885400313966E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="87"/>
+      <c r="C29" s="34">
+        <v>12</v>
+      </c>
+      <c r="D29" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="87"/>
+      <c r="C30" s="34">
+        <v>14</v>
+      </c>
+      <c r="D30" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="87"/>
+      <c r="C31" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="87"/>
+      <c r="C32" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="87"/>
+      <c r="C33" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="87"/>
+      <c r="C34" s="34">
+        <v>16</v>
+      </c>
+      <c r="D34" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="87"/>
+      <c r="C35" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="87"/>
+      <c r="C36" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="16" thickBot="1">
+      <c r="B37" s="88"/>
+      <c r="C37" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="104" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D20:G20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8771,4 +10011,162 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="19" thickBot="1">
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="125"/>
+    </row>
+    <row r="2" spans="1:13" ht="19" thickBot="1">
+      <c r="A2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="64">
+        <v>1</v>
+      </c>
+      <c r="F2" s="70">
+        <v>4</v>
+      </c>
+      <c r="G2" s="70">
+        <v>7</v>
+      </c>
+      <c r="H2" s="65">
+        <v>9</v>
+      </c>
+      <c r="I2" s="61"/>
+      <c r="J2" s="64">
+        <v>1</v>
+      </c>
+      <c r="K2" s="70">
+        <v>4</v>
+      </c>
+      <c r="L2" s="70">
+        <v>7</v>
+      </c>
+      <c r="M2" s="71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="66">
+        <v>7</v>
+      </c>
+      <c r="C3" s="67">
+        <v>3</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="66"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
+    </row>
+    <row r="4" spans="1:13" ht="16" thickBot="1">
+      <c r="A4" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="68">
+        <v>5</v>
+      </c>
+      <c r="C4" s="69">
+        <v>5</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="68">
+        <v>541880</v>
+      </c>
+      <c r="F4" s="19">
+        <v>534592</v>
+      </c>
+      <c r="G4" s="19">
+        <v>533437</v>
+      </c>
+      <c r="H4" s="69">
+        <v>529813</v>
+      </c>
+      <c r="I4" s="63">
+        <v>450919</v>
+      </c>
+      <c r="J4" s="75">
+        <f>(E4-$I4)/E4</f>
+        <v>0.16786188824093895</v>
+      </c>
+      <c r="K4" s="75">
+        <f t="shared" ref="K4:M4" si="0">(F4-$I4)/F4</f>
+        <v>0.15651749371483301</v>
+      </c>
+      <c r="L4" s="75">
+        <f t="shared" si="0"/>
+        <v>0.1546911819015179</v>
+      </c>
+      <c r="M4" s="75">
+        <f t="shared" si="0"/>
+        <v>0.148909143414752</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="J1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>